--- a/Zeitaufzeichnung_richtig.xlsx
+++ b/Zeitaufzeichnung_richtig.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan Langela\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17655" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Projektmanagement" sheetId="5" r:id="rId1"/>
@@ -13,12 +18,12 @@
     <sheet name="Tests und Abnahme" sheetId="4" r:id="rId4"/>
     <sheet name="Gesamtansicht" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="137">
   <si>
     <t>Kaiser</t>
   </si>
@@ -377,9 +382,6 @@
     <t>Lastenheft</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>Einteilung</t>
   </si>
   <si>
@@ -426,17 +428,23 @@
   </si>
   <si>
     <t>Lastenheft erweitert</t>
+  </si>
+  <si>
+    <t>App die auf Input einen Output gibt</t>
+  </si>
+  <si>
+    <t>Auseinandersetzen mit Android Studio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="170" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,7 +674,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -689,11 +697,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -791,6 +799,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1115,14 +1131,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="45.85546875" customWidth="1"/>
@@ -1136,7 +1152,7 @@
     <col min="10" max="10" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="1" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="45"/>
       <c r="B1" s="45" t="s">
         <v>24</v>
@@ -1160,24 +1176,24 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="2" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>114</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E2" s="38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>8</v>
@@ -1187,51 +1203,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="3" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>115</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E3" s="14">
         <v>1</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H3" t="s">
         <v>118</v>
       </c>
       <c r="J3">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>116</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E4" s="14">
         <v>1</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
@@ -1241,128 +1257,128 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="5" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>117</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E5" s="15">
         <v>1</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J5">
         <f>SUMIF(B:B,H5,E:E)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="6" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>114</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E6" s="38">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J6">
         <f>SUMIF(B:B,H6,E:E)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="7" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>115</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E7" s="14">
         <v>1.5</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H7" s="19" t="s">
         <v>36</v>
       </c>
       <c r="J7">
         <f>SUM(J3:J6)</f>
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>116</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E8" s="14">
         <v>1.5</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>117</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E9" s="15">
         <v>0.5</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
         <v>114</v>
       </c>
@@ -1373,12 +1389,14 @@
         <v>118</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E10" s="38">
-        <v>0</v>
-      </c>
-      <c r="F10" s="39"/>
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>133</v>
+      </c>
       <c r="H10" t="s">
         <v>40</v>
       </c>
@@ -1386,7 +1404,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>115</v>
       </c>
@@ -1397,23 +1415,23 @@
         <v>118</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E11" s="14">
         <v>1</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>114</v>
       </c>
       <c r="I11">
         <f>SUMIF(A:A,H11,E:E)</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>116</v>
       </c>
@@ -1424,13 +1442,13 @@
         <v>118</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12" s="21">
         <v>1</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>115</v>
@@ -1440,7 +1458,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="13" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>117</v>
       </c>
@@ -1451,13 +1469,13 @@
         <v>118</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E13" s="15">
         <v>1</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>116</v>
@@ -1467,18 +1485,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>114</v>
       </c>
       <c r="B14" s="41"/>
       <c r="C14" s="33"/>
       <c r="D14" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14" s="38">
-        <v>0</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="E14" s="38"/>
       <c r="F14" s="39"/>
       <c r="H14" s="1" t="s">
         <v>117</v>
@@ -1488,34 +1504,34 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>115</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E15" s="14">
         <v>3</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H15" s="19" t="s">
         <v>36</v>
       </c>
       <c r="I15">
         <f>SUM(I11:I14)</f>
-        <v>18.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>116</v>
       </c>
@@ -1523,108 +1539,111 @@
         <v>118</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E16" s="14">
         <v>1.5</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>117</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="2"/>
       <c r="D17" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E17" s="15">
         <v>1</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
+      <c r="B18" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>118</v>
+      </c>
       <c r="D18" s="37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E18" s="33">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>115</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E19" s="1">
         <v>3</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>116</v>
       </c>
       <c r="B20" s="31"/>
       <c r="C20" s="1"/>
       <c r="D20" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>117</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="2"/>
       <c r="D21" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
       </c>
       <c r="F21" s="44" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" thickTop="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="D22" s="22"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Eingabe korrigieren" promptTitle="Falsche Eingabe" sqref="C10:C13 B1 B10:B65536 C19">
       <formula1>$H$2:$H$6</formula1>
@@ -1639,14 +1658,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
@@ -1658,7 +1677,7 @@
     <col min="10" max="10" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickTop="1">
+    <row r="1" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
@@ -1681,7 +1700,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>114</v>
       </c>
@@ -1708,7 +1727,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>115</v>
       </c>
@@ -1735,7 +1754,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>116</v>
       </c>
@@ -1762,7 +1781,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>117</v>
       </c>
@@ -1789,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>114</v>
       </c>
@@ -1816,7 +1835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>115</v>
       </c>
@@ -1843,7 +1862,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>116</v>
       </c>
@@ -1863,7 +1882,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>117</v>
       </c>
@@ -1883,7 +1902,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>115</v>
       </c>
@@ -1909,7 +1928,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>114</v>
       </c>
@@ -1936,7 +1955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>117</v>
       </c>
@@ -1963,7 +1982,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>116</v>
       </c>
@@ -1990,7 +2009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>114</v>
       </c>
@@ -2006,7 +2025,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>115</v>
       </c>
@@ -2033,7 +2052,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>116</v>
       </c>
@@ -2053,7 +2072,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>117</v>
       </c>
@@ -2073,7 +2092,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickTop="1">
+    <row r="18" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>114</v>
       </c>
@@ -2093,7 +2112,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>115</v>
       </c>
@@ -2113,7 +2132,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -2133,7 +2152,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -2153,7 +2172,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>114</v>
       </c>
@@ -2173,7 +2192,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -2193,7 +2212,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>116</v>
       </c>
@@ -2213,7 +2232,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -2233,7 +2252,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>114</v>
       </c>
@@ -2253,7 +2272,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>115</v>
       </c>
@@ -2273,7 +2292,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>116</v>
       </c>
@@ -2293,7 +2312,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>117</v>
       </c>
@@ -2313,7 +2332,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>117</v>
       </c>
@@ -2333,7 +2352,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>117</v>
       </c>
@@ -2353,7 +2372,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -2373,7 +2392,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>115</v>
       </c>
@@ -2393,7 +2412,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>115</v>
       </c>
@@ -2413,7 +2432,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>115</v>
       </c>
@@ -2433,7 +2452,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>115</v>
       </c>
@@ -2453,7 +2472,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -2473,7 +2492,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>115</v>
       </c>
@@ -2493,7 +2512,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>115</v>
       </c>
@@ -2513,7 +2532,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>115</v>
       </c>
@@ -2533,7 +2552,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -2553,7 +2572,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>115</v>
       </c>
@@ -2573,7 +2592,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>115</v>
       </c>
@@ -2593,7 +2612,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>115</v>
       </c>
@@ -2613,7 +2632,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>115</v>
       </c>
@@ -2633,7 +2652,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>115</v>
       </c>
@@ -2653,7 +2672,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>115</v>
       </c>
@@ -2673,7 +2692,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>115</v>
       </c>
@@ -2694,7 +2713,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Eingabe korrigieren" promptTitle="Falsche Eingabe" sqref="B1:B48 B50:B65536">
       <formula1>$H$1:$H$6</formula1>
@@ -2709,14 +2727,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
@@ -2727,7 +2745,7 @@
     <col min="7" max="7" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickTop="1">
+    <row r="1" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
@@ -2750,7 +2768,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>117</v>
       </c>
@@ -2765,7 +2783,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>114</v>
       </c>
@@ -2792,7 +2810,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>114</v>
       </c>
@@ -2819,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -2846,7 +2864,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -2862,7 +2880,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -2888,7 +2906,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -2915,7 +2933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -2942,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>0</v>
       </c>
@@ -2957,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -2973,7 +2991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -2989,7 +3007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -2999,7 +3017,7 @@
       <c r="E13" s="28"/>
       <c r="F13" s="17"/>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>0</v>
       </c>
@@ -3007,7 +3025,7 @@
       <c r="C14" s="1"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
@@ -3016,7 +3034,7 @@
       <c r="E15" s="27"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -3025,7 +3043,7 @@
       <c r="E16" s="27"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -3035,7 +3053,7 @@
       <c r="E17" s="28"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickTop="1">
+    <row r="18" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -3055,7 +3073,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -3075,7 +3093,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -3095,7 +3113,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -3115,7 +3133,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -3135,7 +3153,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -3155,7 +3173,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -3176,7 +3194,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
       <formula1>$H$1:$H$5</formula1>
@@ -3191,21 +3208,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="H13" sqref="H13:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickTop="1">
+    <row r="1" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
@@ -3228,7 +3245,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -3244,7 +3261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3260,7 +3277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -3276,7 +3293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -3293,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -3310,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -3326,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -3342,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -3352,7 +3369,7 @@
       <c r="E9" s="15"/>
       <c r="F9" s="17"/>
     </row>
-    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>0</v>
       </c>
@@ -3361,7 +3378,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -3370,7 +3387,7 @@
       <c r="E11" s="14"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -3385,7 +3402,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -3402,7 +3419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>0</v>
       </c>
@@ -3418,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
@@ -3434,7 +3451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -3450,7 +3467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+    <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -3467,9 +3484,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" thickTop="1"/>
+    <row r="18" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name korrigieren" promptTitle="Name falsch" sqref="A1:A21">
       <formula1>$H$1:$H$1</formula1>
@@ -3483,20 +3499,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="10.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F1" s="24" t="s">
         <v>72</v>
       </c>
@@ -3504,19 +3520,19 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="F2" s="24">
         <f>Projektmanagement!I15</f>
-        <v>18.2</v>
+        <v>22</v>
       </c>
       <c r="H2">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
@@ -3525,16 +3541,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>37</v>
       </c>
       <c r="F4" s="24">
         <f>Projektmanagement!J3</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -3543,7 +3559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -3552,7 +3568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>45</v>
       </c>
@@ -3561,7 +3577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -3573,7 +3589,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>34</v>
       </c>
@@ -3582,7 +3598,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -3591,7 +3607,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -3600,7 +3616,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -3609,7 +3625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>35</v>
       </c>
@@ -3618,7 +3634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -3630,7 +3646,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
@@ -3639,7 +3655,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -3648,7 +3664,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -3657,7 +3673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -3666,7 +3682,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -3678,7 +3694,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>18</v>
       </c>
@@ -3687,7 +3703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>19</v>
       </c>
@@ -3696,7 +3712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -3705,7 +3721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>21</v>
       </c>
@@ -3714,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>22</v>
       </c>
@@ -3723,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>23</v>
       </c>

--- a/Zeitaufzeichnung_richtig.xlsx
+++ b/Zeitaufzeichnung_richtig.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan Langela\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matthias/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17655" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Projektmanagement" sheetId="5" r:id="rId1"/>
@@ -18,12 +18,17 @@
     <sheet name="Tests und Abnahme" sheetId="4" r:id="rId4"/>
     <sheet name="Gesamtansicht" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="138">
   <si>
     <t>Kaiser</t>
   </si>
@@ -434,15 +439,18 @@
   </si>
   <si>
     <t>Auseinandersetzen mit Android Studio</t>
+  </si>
+  <si>
+    <t>Machbarkeit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -481,33 +489,33 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,43 +523,43 @@
       <left/>
       <right/>
       <top style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -559,29 +567,29 @@
     </border>
     <border>
       <left style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -590,26 +598,26 @@
     </border>
     <border>
       <left style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -618,7 +626,7 @@
       <left/>
       <right/>
       <top style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -626,37 +634,37 @@
     <border>
       <left/>
       <right style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,17 +672,17 @@
       <left/>
       <right/>
       <top style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -697,11 +705,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -726,7 +734,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1132,27 +1140,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="6" max="6" width="34.5" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="29.5" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="45"/>
       <c r="B1" s="45" t="s">
         <v>24</v>
@@ -1176,7 +1184,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>114</v>
       </c>
@@ -1203,7 +1211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>115</v>
       </c>
@@ -1227,10 +1235,10 @@
       </c>
       <c r="J3">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>116</v>
       </c>
@@ -1250,14 +1258,14 @@
         <v>119</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>137</v>
       </c>
       <c r="J4">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>117</v>
       </c>
@@ -1284,7 +1292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>114</v>
       </c>
@@ -1311,7 +1319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>115</v>
       </c>
@@ -1335,10 +1343,10 @@
       </c>
       <c r="J7">
         <f>SUM(J3:J6)</f>
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>116</v>
       </c>
@@ -1358,7 +1366,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>117</v>
       </c>
@@ -1378,7 +1386,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>114</v>
       </c>
@@ -1404,7 +1412,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>115</v>
       </c>
@@ -1428,10 +1436,10 @@
       </c>
       <c r="I11">
         <f>SUMIF(A:A,H11,E:E)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>116</v>
       </c>
@@ -1458,7 +1466,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>117</v>
       </c>
@@ -1482,10 +1490,10 @@
       </c>
       <c r="I13">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>114</v>
       </c>
@@ -1501,10 +1509,10 @@
       </c>
       <c r="I14">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>115</v>
       </c>
@@ -1528,10 +1536,10 @@
       </c>
       <c r="I15">
         <f>SUM(I11:I14)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>116</v>
       </c>
@@ -1551,23 +1559,27 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="D17" s="10" t="s">
         <v>126</v>
       </c>
       <c r="E17" s="15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>114</v>
       </c>
@@ -1581,13 +1593,13 @@
         <v>127</v>
       </c>
       <c r="E18" s="33">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="F18" s="34" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>115</v>
       </c>
@@ -1607,48 +1619,93 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="1"/>
+      <c r="B20" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>137</v>
+      </c>
       <c r="D20" s="11" t="s">
         <v>127</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F20" s="43" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="2"/>
+      <c r="B21" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="D21" s="10" t="s">
         <v>127</v>
       </c>
       <c r="E21" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F21" s="44" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="D22" s="22"/>
-    </row>
+    <row r="22" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="34"/>
+    </row>
+    <row r="23" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="43"/>
+    </row>
+    <row r="24" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="43"/>
+    </row>
+    <row r="25" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="44"/>
+    </row>
+    <row r="26" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Eingabe korrigieren" promptTitle="Falsche Eingabe" sqref="C10:C13 B1 B10:B65536 C19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Eingabe korrigieren" promptTitle="Falsche Eingabe" sqref="C10:C13 B1 C19 B10:B65536 C23">
       <formula1>$H$2:$H$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name korrigieren" promptTitle="Name falsch" sqref="A1:A22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name korrigieren" promptTitle="Name falsch" sqref="A1:A25">
       <formula1>$H$11:$H$14</formula1>
     </dataValidation>
   </dataValidations>
@@ -1661,23 +1718,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="24" customWidth="1"/>
+    <col min="6" max="6" width="28.5" customWidth="1"/>
     <col min="7" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
@@ -1700,7 +1757,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>114</v>
       </c>
@@ -1727,7 +1784,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>115</v>
       </c>
@@ -1754,7 +1811,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>116</v>
       </c>
@@ -1781,7 +1838,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>117</v>
       </c>
@@ -1808,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>114</v>
       </c>
@@ -1835,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>115</v>
       </c>
@@ -1862,7 +1919,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>116</v>
       </c>
@@ -1882,7 +1939,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>117</v>
       </c>
@@ -1902,7 +1959,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>115</v>
       </c>
@@ -1928,7 +1985,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>114</v>
       </c>
@@ -1955,7 +2012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>117</v>
       </c>
@@ -1982,7 +2039,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>116</v>
       </c>
@@ -2009,7 +2066,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>114</v>
       </c>
@@ -2025,7 +2082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>115</v>
       </c>
@@ -2052,7 +2109,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>116</v>
       </c>
@@ -2072,7 +2129,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>117</v>
       </c>
@@ -2092,7 +2149,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>114</v>
       </c>
@@ -2112,7 +2169,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>115</v>
       </c>
@@ -2132,7 +2189,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -2152,7 +2209,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -2172,7 +2229,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>114</v>
       </c>
@@ -2192,7 +2249,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -2212,7 +2269,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>116</v>
       </c>
@@ -2232,7 +2289,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -2252,7 +2309,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>114</v>
       </c>
@@ -2272,7 +2329,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>115</v>
       </c>
@@ -2292,7 +2349,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>116</v>
       </c>
@@ -2312,7 +2369,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>117</v>
       </c>
@@ -2332,7 +2389,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>117</v>
       </c>
@@ -2352,7 +2409,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>117</v>
       </c>
@@ -2372,7 +2429,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -2392,7 +2449,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>115</v>
       </c>
@@ -2412,7 +2469,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>115</v>
       </c>
@@ -2432,7 +2489,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>115</v>
       </c>
@@ -2452,7 +2509,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>115</v>
       </c>
@@ -2472,7 +2529,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -2492,7 +2549,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>115</v>
       </c>
@@ -2512,7 +2569,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>115</v>
       </c>
@@ -2532,7 +2589,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>115</v>
       </c>
@@ -2552,7 +2609,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -2572,7 +2629,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>115</v>
       </c>
@@ -2592,7 +2649,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>115</v>
       </c>
@@ -2612,7 +2669,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>115</v>
       </c>
@@ -2632,7 +2689,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>115</v>
       </c>
@@ -2652,7 +2709,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>115</v>
       </c>
@@ -2672,7 +2729,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>115</v>
       </c>
@@ -2692,7 +2749,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>115</v>
       </c>
@@ -2734,18 +2791,18 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="31.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="26" customWidth="1"/>
+    <col min="6" max="6" width="31.5" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
@@ -2768,7 +2825,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>117</v>
       </c>
@@ -2783,7 +2840,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>114</v>
       </c>
@@ -2810,7 +2867,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>114</v>
       </c>
@@ -2837,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -2864,7 +2921,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -2880,7 +2937,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -2906,7 +2963,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -2933,7 +2990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -2960,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>0</v>
       </c>
@@ -2975,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -2991,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -3007,7 +3064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -3017,7 +3074,7 @@
       <c r="E13" s="28"/>
       <c r="F13" s="17"/>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>0</v>
       </c>
@@ -3025,7 +3082,7 @@
       <c r="C14" s="1"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
@@ -3034,7 +3091,7 @@
       <c r="E15" s="27"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -3043,7 +3100,7 @@
       <c r="E16" s="27"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -3053,7 +3110,7 @@
       <c r="E17" s="28"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -3073,7 +3130,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -3093,7 +3150,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -3113,7 +3170,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -3133,7 +3190,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -3153,7 +3210,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -3173,7 +3230,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -3215,14 +3272,14 @@
       <selection activeCell="H13" sqref="H13:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
@@ -3245,7 +3302,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -3261,7 +3318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3277,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -3293,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -3310,7 +3367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -3327,7 +3384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -3343,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -3359,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -3369,7 +3426,7 @@
       <c r="E9" s="15"/>
       <c r="F9" s="17"/>
     </row>
-    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>0</v>
       </c>
@@ -3378,7 +3435,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -3387,7 +3444,7 @@
       <c r="E11" s="14"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -3402,7 +3459,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -3419,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>0</v>
       </c>
@@ -3435,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
@@ -3451,7 +3508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -3467,7 +3524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -3484,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name korrigieren" promptTitle="Name falsch" sqref="A1:A21">
@@ -3506,13 +3563,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="24" customWidth="1"/>
+    <col min="1" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F1" s="24" t="s">
         <v>72</v>
       </c>
@@ -3520,19 +3577,19 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="F2" s="24">
         <f>Projektmanagement!I15</f>
-        <v>22</v>
+        <v>30.5</v>
       </c>
       <c r="H2">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
@@ -3541,25 +3598,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>37</v>
       </c>
       <c r="F4" s="24">
         <f>Projektmanagement!J3</f>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="24">
         <f>Projektmanagement!J4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -3568,7 +3625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="19" t="s">
         <v>45</v>
       </c>
@@ -3577,7 +3634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -3589,7 +3646,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>34</v>
       </c>
@@ -3598,7 +3655,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -3607,7 +3664,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -3616,7 +3673,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -3625,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>35</v>
       </c>
@@ -3634,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -3646,7 +3703,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
@@ -3655,7 +3712,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -3664,7 +3721,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -3673,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -3682,7 +3739,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -3694,7 +3751,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="8" t="s">
         <v>18</v>
       </c>
@@ -3703,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>19</v>
       </c>
@@ -3712,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -3721,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>21</v>
       </c>
@@ -3730,7 +3787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>22</v>
       </c>
@@ -3739,7 +3796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>23</v>
       </c>

--- a/Zeitaufzeichnung_richtig.xlsx
+++ b/Zeitaufzeichnung_richtig.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matthias/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Schule\ITP\Döner_Spoted\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10550"/>
   </bookViews>
   <sheets>
     <sheet name="Projektmanagement" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Tests und Abnahme" sheetId="4" r:id="rId4"/>
     <sheet name="Gesamtansicht" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -447,7 +447,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
@@ -734,7 +734,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1143,24 +1143,24 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="45.83203125" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="45.81640625" customWidth="1"/>
+    <col min="3" max="3" width="26.6328125" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="34.5" customWidth="1"/>
+    <col min="6" max="6" width="34.453125" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="29.5" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="29.453125" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="45"/>
       <c r="B1" s="45" t="s">
         <v>24</v>
@@ -1184,7 +1184,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="29" t="s">
         <v>114</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="29" t="s">
         <v>115</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="29" t="s">
         <v>116</v>
       </c>
@@ -1262,10 +1262,10 @@
       </c>
       <c r="J4">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="29" t="s">
         <v>117</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="29" t="s">
         <v>114</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="29" t="s">
         <v>115</v>
       </c>
@@ -1343,10 +1343,10 @@
       </c>
       <c r="J7">
         <f>SUM(J3:J6)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="29" t="s">
         <v>116</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="29" t="s">
         <v>117</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="35" t="s">
         <v>114</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="29" t="s">
         <v>115</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="29" t="s">
         <v>116</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="29" t="s">
         <v>117</v>
       </c>
@@ -1490,10 +1490,10 @@
       </c>
       <c r="I13">
         <f>SUMIF(A:A,H13,E:E)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="29" t="s">
         <v>114</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="29" t="s">
         <v>115</v>
       </c>
@@ -1536,10 +1536,10 @@
       </c>
       <c r="I15">
         <f>SUM(I11:I14)</f>
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="29" t="s">
         <v>116</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="29" t="s">
         <v>117</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="30" t="s">
         <v>114</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="29" t="s">
         <v>115</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="29" t="s">
         <v>116</v>
       </c>
@@ -1633,13 +1633,13 @@
         <v>127</v>
       </c>
       <c r="E20" s="1">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F20" s="43" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="29" t="s">
         <v>117</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="30" t="s">
         <v>114</v>
       </c>
@@ -1669,7 +1669,7 @@
       <c r="E22" s="33"/>
       <c r="F22" s="34"/>
     </row>
-    <row r="23" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="29" t="s">
         <v>115</v>
       </c>
@@ -1679,7 +1679,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="43"/>
     </row>
-    <row r="24" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="29" t="s">
         <v>116</v>
       </c>
@@ -1689,7 +1689,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="43"/>
     </row>
-    <row r="25" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="29" t="s">
         <v>117</v>
       </c>
@@ -1699,7 +1699,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="44"/>
     </row>
-    <row r="26" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Eingabe korrigieren" promptTitle="Falsche Eingabe" sqref="C10:C13 B1 C19 B10:B65536 C23">
@@ -1722,19 +1722,19 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="30.453125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="24" customWidth="1"/>
-    <col min="6" max="6" width="28.5" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="28.453125" customWidth="1"/>
     <col min="7" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>114</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>115</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>116</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>117</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>114</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>115</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>116</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>117</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>115</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>114</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>117</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>116</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>114</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>115</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>116</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>117</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>114</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>115</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>114</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>116</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>114</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>115</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>116</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>117</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>117</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>117</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>115</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>115</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>115</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>115</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>115</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>115</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>115</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>115</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>115</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>115</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>115</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>115</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>115</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>115</v>
       </c>
@@ -2791,18 +2791,18 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" customWidth="1"/>
+    <col min="3" max="3" width="32.1796875" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="26" customWidth="1"/>
-    <col min="6" max="6" width="31.5" customWidth="1"/>
-    <col min="7" max="7" width="22.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="31.453125" customWidth="1"/>
+    <col min="7" max="7" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>117</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>114</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>114</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>0</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -3074,7 +3074,7 @@
       <c r="E13" s="28"/>
       <c r="F13" s="17"/>
     </row>
-    <row r="14" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>0</v>
       </c>
@@ -3082,7 +3082,7 @@
       <c r="C14" s="1"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
@@ -3091,7 +3091,7 @@
       <c r="E15" s="27"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -3100,7 +3100,7 @@
       <c r="E16" s="27"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -3110,7 +3110,7 @@
       <c r="E17" s="28"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -3272,14 +3272,14 @@
       <selection activeCell="H13" sqref="H13:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -3426,7 +3426,7 @@
       <c r="E9" s="15"/>
       <c r="F9" s="17"/>
     </row>
-    <row r="10" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>0</v>
       </c>
@@ -3435,7 +3435,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -3444,7 +3444,7 @@
       <c r="E11" s="14"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>0</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name korrigieren" promptTitle="Name falsch" sqref="A1:A21">
@@ -3563,13 +3563,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="24" customWidth="1"/>
+    <col min="1" max="5" width="10.81640625" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F1" s="24" t="s">
         <v>72</v>
       </c>
@@ -3577,19 +3577,19 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="F2" s="24">
         <f>Projektmanagement!I15</f>
-        <v>30.5</v>
+        <v>32</v>
       </c>
       <c r="H2">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>37</v>
       </c>
@@ -3607,16 +3607,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="24">
         <f>Projektmanagement!J4</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="19" t="s">
         <v>45</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
         <v>34</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>35</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B20" s="8" t="s">
         <v>18</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>19</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>21</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>22</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>23</v>
       </c>

--- a/Zeitaufzeichnung_richtig.xlsx
+++ b/Zeitaufzeichnung_richtig.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16180" windowHeight="6790"/>
   </bookViews>
   <sheets>
     <sheet name="Projektmanagement" sheetId="5" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Tests und Abnahme" sheetId="4" r:id="rId4"/>
     <sheet name="Gesamtansicht" sheetId="6" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="Start">Projektmanagement!$H$2:$H$9</definedName>
+  </definedNames>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="143">
   <si>
     <t>Kaiser</t>
   </si>
@@ -438,10 +441,25 @@
     <t>App die auf Input einen Output gibt</t>
   </si>
   <si>
-    <t>Auseinandersetzen mit Android Studio</t>
-  </si>
-  <si>
     <t>Machbarkeit</t>
+  </si>
+  <si>
+    <t>27.02.2017 - 05.03.2017</t>
+  </si>
+  <si>
+    <t>06.03.2017- 12.03.2017</t>
+  </si>
+  <si>
+    <t>Pflichtenheft</t>
+  </si>
+  <si>
+    <t>Funktionen/Daten/Termine</t>
+  </si>
+  <si>
+    <t>Pflichtenheft fertig</t>
+  </si>
+  <si>
+    <t>Pflichtenheft draft</t>
   </si>
 </sst>
 </file>
@@ -1140,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1189,7 +1207,7 @@
         <v>114</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>119</v>
@@ -1230,12 +1248,12 @@
       <c r="F3" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="H3" t="s">
-        <v>118</v>
+      <c r="H3" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="J3">
         <f>SUMIF(B:B,H3,E:E)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1257,12 +1275,12 @@
       <c r="F4" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="H4" t="s">
-        <v>137</v>
+      <c r="H4" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="J4">
         <f>SUMIF(B:B,H4,E:E)</f>
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1285,11 +1303,11 @@
         <v>120</v>
       </c>
       <c r="H5" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="J5">
         <f>SUMIF(B:B,H5,E:E)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1311,12 +1329,12 @@
       <c r="F6" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>129</v>
+      <c r="H6" t="s">
+        <v>136</v>
       </c>
       <c r="J6">
         <f>SUMIF(B:B,H6,E:E)</f>
-        <v>3</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1338,12 +1356,12 @@
       <c r="F7" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="19" t="s">
-        <v>36</v>
+      <c r="H7" t="s">
+        <v>128</v>
       </c>
       <c r="J7">
-        <f>SUM(J3:J6)</f>
-        <v>22.5</v>
+        <f>SUMIF(B:B,H7,E:E)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1365,6 +1383,13 @@
       <c r="F8" s="16" t="s">
         <v>132</v>
       </c>
+      <c r="H8" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="J8">
+        <f>SUMIF(B:B,H8,E:E)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="29" t="s">
@@ -1385,6 +1410,13 @@
       <c r="F9" s="17" t="s">
         <v>132</v>
       </c>
+      <c r="H9" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J9">
+        <f>SUMIF(B:B,H9,E:E)</f>
+        <v>4.5</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="35" t="s">
@@ -1405,11 +1437,12 @@
       <c r="F10" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="H10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" t="s">
-        <v>41</v>
+      <c r="H10" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10">
+        <f>SUM(J2:J9)</f>
+        <v>36.5</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1431,13 +1464,6 @@
       <c r="F11" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I11">
-        <f>SUMIF(A:A,H11,E:E)</f>
-        <v>6</v>
-      </c>
     </row>
     <row r="12" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="29" t="s">
@@ -1458,12 +1484,8 @@
       <c r="F12" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I12">
-        <f>SUMIF(A:A,H12,E:E)</f>
-        <v>9.5</v>
+      <c r="I12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1485,12 +1507,8 @@
       <c r="F13" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I13">
-        <f>SUMIF(A:A,H13,E:E)</f>
-        <v>9.5</v>
+      <c r="H13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1505,11 +1523,11 @@
       <c r="E14" s="38"/>
       <c r="F14" s="39"/>
       <c r="H14" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I14">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1531,12 +1549,12 @@
       <c r="F15" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="H15" s="19" t="s">
-        <v>36</v>
+      <c r="H15" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="I15">
-        <f>SUM(I11:I14)</f>
-        <v>32</v>
+        <f>SUMIF(A:A,H15,E:E)</f>
+        <v>9.5</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1558,8 +1576,15 @@
       <c r="F16" s="16" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16">
+        <f>SUMIF(A:A,H16,E:E)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="29" t="s">
         <v>117</v>
       </c>
@@ -1578,8 +1603,15 @@
       <c r="F17" s="17" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17">
+        <f>SUMIF(A:A,H17,E:E)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="30" t="s">
         <v>114</v>
       </c>
@@ -1598,8 +1630,15 @@
       <c r="F18" s="34" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H18" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18">
+        <f>SUM(I14:I17)</f>
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="29" t="s">
         <v>115</v>
       </c>
@@ -1619,15 +1658,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="29" t="s">
         <v>116</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>127</v>
@@ -1639,15 +1678,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="29" t="s">
         <v>117</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>127</v>
@@ -1659,54 +1698,150 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="32"/>
+      <c r="B22" s="19" t="s">
+        <v>139</v>
+      </c>
       <c r="C22" s="33"/>
-      <c r="D22" s="37"/>
+      <c r="D22" s="37" t="s">
+        <v>137</v>
+      </c>
       <c r="E22" s="33"/>
-      <c r="F22" s="34"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F22" s="34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="31"/>
+      <c r="B23" s="19" t="s">
+        <v>139</v>
+      </c>
       <c r="C23" s="19"/>
-      <c r="D23" s="11"/>
+      <c r="D23" s="11" t="s">
+        <v>137</v>
+      </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="43"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F23" s="43" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="43"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="29" t="s">
+      <c r="B24" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="19">
+        <v>3</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="12"/>
+      <c r="B25" s="42" t="s">
+        <v>139</v>
+      </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="10"/>
+      <c r="D25" s="10" t="s">
+        <v>137</v>
+      </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="44"/>
-    </row>
-    <row r="26" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+      <c r="F25" s="44" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="33"/>
+      <c r="F26" s="43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="44" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Eingabe korrigieren" promptTitle="Falsche Eingabe" sqref="C10:C13 B1 C19 B10:B65536 C23">
-      <formula1>$H$2:$H$6</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name korrigieren" promptTitle="Name falsch" sqref="A1:A29">
+      <formula1>$H$14:$H$17</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name korrigieren" promptTitle="Name falsch" sqref="A1:A25">
-      <formula1>$H$11:$H$14</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Eingabe korrigieren" promptTitle="Falsche Eingabe" sqref="C10:C13 B1 C19 C23 C27 B10:B21 B30:B65536">
+      <formula1>$H$2:$H$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3582,8 +3717,8 @@
         <v>74</v>
       </c>
       <c r="F2" s="24">
-        <f>Projektmanagement!I15</f>
-        <v>32</v>
+        <f>Projektmanagement!I18</f>
+        <v>36.5</v>
       </c>
       <c r="H2">
         <v>25</v>
@@ -3603,7 +3738,7 @@
         <v>37</v>
       </c>
       <c r="F4" s="24">
-        <f>Projektmanagement!J3</f>
+        <f>Projektmanagement!J5</f>
         <v>9</v>
       </c>
     </row>
@@ -3612,7 +3747,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="24">
-        <f>Projektmanagement!J4</f>
+        <f>Projektmanagement!J6</f>
         <v>7.5</v>
       </c>
     </row>
@@ -3621,7 +3756,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="24">
-        <f>Projektmanagement!J5</f>
+        <f>Projektmanagement!J7</f>
         <v>3</v>
       </c>
     </row>
@@ -3630,7 +3765,7 @@
         <v>45</v>
       </c>
       <c r="F7" s="24">
-        <f>Projektmanagement!J6</f>
+        <f>Projektmanagement!J8</f>
         <v>3</v>
       </c>
     </row>

--- a/Zeitaufzeichnung_richtig.xlsx
+++ b/Zeitaufzeichnung_richtig.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Schule\ITP\Döner_Spoted\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matthias/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16180" windowHeight="6790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Projektmanagement" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="Start">Projektmanagement!$H$2:$H$9</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="144">
   <si>
     <t>Kaiser</t>
   </si>
@@ -460,12 +460,15 @@
   </si>
   <si>
     <t>Pflichtenheft draft</t>
+  </si>
+  <si>
+    <t>Zielbestimmung, Produkteinsatz, Benutzerschnittstellen, Vertragsgegenstand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
@@ -752,7 +755,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1160,25 +1163,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" customWidth="1"/>
-    <col min="3" max="3" width="26.6328125" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="34.453125" customWidth="1"/>
+    <col min="6" max="6" width="34.5" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" customWidth="1"/>
-    <col min="10" max="10" width="14.81640625" customWidth="1"/>
+    <col min="8" max="8" width="29.5" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="45"/>
       <c r="B1" s="45" t="s">
         <v>24</v>
@@ -1202,7 +1205,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>114</v>
       </c>
@@ -1225,11 +1228,11 @@
         <v>8</v>
       </c>
       <c r="J2">
-        <f>SUMIF(B:B,H2,E:E)</f>
+        <f t="shared" ref="J2:J9" si="0">SUMIF(B:B,H2,E:E)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>115</v>
       </c>
@@ -1252,11 +1255,11 @@
         <v>119</v>
       </c>
       <c r="J3">
-        <f>SUMIF(B:B,H3,E:E)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>116</v>
       </c>
@@ -1279,11 +1282,11 @@
         <v>122</v>
       </c>
       <c r="J4">
-        <f>SUMIF(B:B,H4,E:E)</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>117</v>
       </c>
@@ -1306,11 +1309,11 @@
         <v>118</v>
       </c>
       <c r="J5">
-        <f>SUMIF(B:B,H5,E:E)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>114</v>
       </c>
@@ -1333,11 +1336,11 @@
         <v>136</v>
       </c>
       <c r="J6">
-        <f>SUMIF(B:B,H6,E:E)</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>115</v>
       </c>
@@ -1360,11 +1363,11 @@
         <v>128</v>
       </c>
       <c r="J7">
-        <f>SUMIF(B:B,H7,E:E)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>116</v>
       </c>
@@ -1387,11 +1390,11 @@
         <v>129</v>
       </c>
       <c r="J8">
-        <f>SUMIF(B:B,H8,E:E)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>117</v>
       </c>
@@ -1405,7 +1408,7 @@
         <v>124</v>
       </c>
       <c r="E9" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>132</v>
@@ -1414,11 +1417,11 @@
         <v>139</v>
       </c>
       <c r="J9">
-        <f>SUMIF(B:B,H9,E:E)</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>114</v>
       </c>
@@ -1442,10 +1445,10 @@
       </c>
       <c r="J10">
         <f>SUM(J2:J9)</f>
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>115</v>
       </c>
@@ -1465,7 +1468,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>116</v>
       </c>
@@ -1488,7 +1491,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>117</v>
       </c>
@@ -1511,7 +1514,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>114</v>
       </c>
@@ -1530,7 +1533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>115</v>
       </c>
@@ -1557,7 +1560,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>116</v>
       </c>
@@ -1584,7 +1587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>117</v>
       </c>
@@ -1598,7 +1601,7 @@
         <v>126</v>
       </c>
       <c r="E17" s="15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>134</v>
@@ -1608,10 +1611,10 @@
       </c>
       <c r="I17">
         <f>SUMIF(A:A,H17,E:E)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>114</v>
       </c>
@@ -1635,10 +1638,10 @@
       </c>
       <c r="I18">
         <f>SUM(I14:I17)</f>
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>115</v>
       </c>
@@ -1658,7 +1661,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>116</v>
       </c>
@@ -1678,7 +1681,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>117</v>
       </c>
@@ -1692,13 +1695,13 @@
         <v>127</v>
       </c>
       <c r="E21" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" s="44" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
         <v>114</v>
       </c>
@@ -1714,7 +1717,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>115</v>
       </c>
@@ -1730,7 +1733,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>116</v>
       </c>
@@ -1750,23 +1753,27 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
         <v>117</v>
       </c>
       <c r="B25" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="D25" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2">
+        <v>3</v>
+      </c>
       <c r="F25" s="44" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
         <v>114</v>
       </c>
@@ -1782,7 +1789,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>115</v>
       </c>
@@ -1798,7 +1805,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>116</v>
       </c>
@@ -1818,23 +1825,27 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
         <v>117</v>
       </c>
       <c r="B29" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="D29" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="2">
+        <v>1.5</v>
+      </c>
       <c r="F29" s="44" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name korrigieren" promptTitle="Name falsch" sqref="A1:A29">
@@ -1857,19 +1868,19 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
-    <col min="3" max="3" width="30.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="28.453125" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="24" customWidth="1"/>
+    <col min="6" max="6" width="28.5" customWidth="1"/>
     <col min="7" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
@@ -1892,7 +1903,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>114</v>
       </c>
@@ -1919,7 +1930,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>115</v>
       </c>
@@ -1946,7 +1957,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>116</v>
       </c>
@@ -1973,7 +1984,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>117</v>
       </c>
@@ -2000,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>114</v>
       </c>
@@ -2027,7 +2038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>115</v>
       </c>
@@ -2054,7 +2065,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>116</v>
       </c>
@@ -2074,7 +2085,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>117</v>
       </c>
@@ -2094,7 +2105,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>115</v>
       </c>
@@ -2120,7 +2131,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>114</v>
       </c>
@@ -2147,7 +2158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>117</v>
       </c>
@@ -2174,7 +2185,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>116</v>
       </c>
@@ -2201,7 +2212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>114</v>
       </c>
@@ -2217,7 +2228,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>115</v>
       </c>
@@ -2244,7 +2255,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>116</v>
       </c>
@@ -2264,7 +2275,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>117</v>
       </c>
@@ -2284,7 +2295,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>114</v>
       </c>
@@ -2304,7 +2315,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>115</v>
       </c>
@@ -2324,7 +2335,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -2344,7 +2355,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -2364,7 +2375,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>114</v>
       </c>
@@ -2384,7 +2395,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -2404,7 +2415,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>116</v>
       </c>
@@ -2424,7 +2435,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -2444,7 +2455,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>114</v>
       </c>
@@ -2464,7 +2475,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>115</v>
       </c>
@@ -2484,7 +2495,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>116</v>
       </c>
@@ -2504,7 +2515,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>117</v>
       </c>
@@ -2524,7 +2535,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>117</v>
       </c>
@@ -2544,7 +2555,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>117</v>
       </c>
@@ -2564,7 +2575,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -2584,7 +2595,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>115</v>
       </c>
@@ -2604,7 +2615,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>115</v>
       </c>
@@ -2624,7 +2635,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>115</v>
       </c>
@@ -2644,7 +2655,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>115</v>
       </c>
@@ -2664,7 +2675,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -2684,7 +2695,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>115</v>
       </c>
@@ -2704,7 +2715,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>115</v>
       </c>
@@ -2724,7 +2735,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>115</v>
       </c>
@@ -2744,7 +2755,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -2764,7 +2775,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>115</v>
       </c>
@@ -2784,7 +2795,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>115</v>
       </c>
@@ -2804,7 +2815,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>115</v>
       </c>
@@ -2824,7 +2835,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>115</v>
       </c>
@@ -2844,7 +2855,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>115</v>
       </c>
@@ -2864,7 +2875,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>115</v>
       </c>
@@ -2884,7 +2895,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>115</v>
       </c>
@@ -2926,18 +2937,18 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="32.1796875" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="31.453125" customWidth="1"/>
-    <col min="7" max="7" width="22.81640625" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="26" customWidth="1"/>
+    <col min="6" max="6" width="31.5" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
@@ -2960,7 +2971,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>117</v>
       </c>
@@ -2975,7 +2986,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>114</v>
       </c>
@@ -3002,7 +3013,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>114</v>
       </c>
@@ -3029,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -3056,7 +3067,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -3072,7 +3083,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -3098,7 +3109,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -3125,7 +3136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -3152,7 +3163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>0</v>
       </c>
@@ -3167,7 +3178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -3183,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -3199,7 +3210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -3209,7 +3220,7 @@
       <c r="E13" s="28"/>
       <c r="F13" s="17"/>
     </row>
-    <row r="14" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>0</v>
       </c>
@@ -3217,7 +3228,7 @@
       <c r="C14" s="1"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
@@ -3226,7 +3237,7 @@
       <c r="E15" s="27"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -3235,7 +3246,7 @@
       <c r="E16" s="27"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -3245,7 +3256,7 @@
       <c r="E17" s="28"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -3265,7 +3276,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -3285,7 +3296,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -3305,7 +3316,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -3325,7 +3336,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -3345,7 +3356,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -3365,7 +3376,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -3407,14 +3418,14 @@
       <selection activeCell="H13" sqref="H13:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
@@ -3437,7 +3448,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -3453,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3469,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -3485,7 +3496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -3502,7 +3513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -3519,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -3535,7 +3546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -3551,7 +3562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -3561,7 +3572,7 @@
       <c r="E9" s="15"/>
       <c r="F9" s="17"/>
     </row>
-    <row r="10" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>0</v>
       </c>
@@ -3570,7 +3581,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -3579,7 +3590,7 @@
       <c r="E11" s="14"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -3594,7 +3605,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -3611,7 +3622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>0</v>
       </c>
@@ -3627,7 +3638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
@@ -3643,7 +3654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -3659,7 +3670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -3676,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name korrigieren" promptTitle="Name falsch" sqref="A1:A21">
@@ -3698,13 +3709,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="10.81640625" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" style="24" customWidth="1"/>
+    <col min="1" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F1" s="24" t="s">
         <v>72</v>
       </c>
@@ -3712,19 +3723,19 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="F2" s="24">
         <f>Projektmanagement!I18</f>
-        <v>36.5</v>
+        <v>43</v>
       </c>
       <c r="H2">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
@@ -3733,25 +3744,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>37</v>
       </c>
       <c r="F4" s="24">
         <f>Projektmanagement!J5</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="24">
         <f>Projektmanagement!J6</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -3760,7 +3771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="19" t="s">
         <v>45</v>
       </c>
@@ -3769,7 +3780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -3781,7 +3792,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>34</v>
       </c>
@@ -3790,7 +3801,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -3799,7 +3810,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -3808,7 +3819,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -3817,7 +3828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>35</v>
       </c>
@@ -3826,7 +3837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -3838,7 +3849,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
@@ -3847,7 +3858,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -3856,7 +3867,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -3865,7 +3876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -3874,7 +3885,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -3886,7 +3897,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="8" t="s">
         <v>18</v>
       </c>
@@ -3895,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>19</v>
       </c>
@@ -3904,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -3913,7 +3924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>21</v>
       </c>
@@ -3922,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>22</v>
       </c>
@@ -3931,7 +3942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>23</v>
       </c>

--- a/Zeitaufzeichnung_richtig.xlsx
+++ b/Zeitaufzeichnung_richtig.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matthias/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan Langela\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17655" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Projektmanagement" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="Start">Projektmanagement!$H$2:$H$9</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="145">
   <si>
     <t>Kaiser</t>
   </si>
@@ -463,15 +463,18 @@
   </si>
   <si>
     <t>Zielbestimmung, Produkteinsatz, Benutzerschnittstellen, Vertragsgegenstand</t>
+  </si>
+  <si>
+    <t>Aktivitäts Diagramm/ Einführung/Produktleistungen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -703,7 +706,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -726,11 +729,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -755,7 +758,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1163,25 +1166,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="45.83203125" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="34.5" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="29.5" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="45"/>
       <c r="B1" s="45" t="s">
         <v>24</v>
@@ -1205,7 +1208,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>114</v>
       </c>
@@ -1232,7 +1235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>115</v>
       </c>
@@ -1259,7 +1262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>116</v>
       </c>
@@ -1286,7 +1289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>117</v>
       </c>
@@ -1310,10 +1313,10 @@
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>114</v>
       </c>
@@ -1340,7 +1343,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>115</v>
       </c>
@@ -1367,7 +1370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>116</v>
       </c>
@@ -1394,7 +1397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>117</v>
       </c>
@@ -1418,10 +1421,10 @@
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
         <v>114</v>
       </c>
@@ -1445,10 +1448,10 @@
       </c>
       <c r="J10">
         <f>SUM(J2:J9)</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>115</v>
       </c>
@@ -1468,7 +1471,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>116</v>
       </c>
@@ -1491,7 +1494,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>117</v>
       </c>
@@ -1514,26 +1517,32 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="33"/>
+      <c r="B14" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>118</v>
+      </c>
       <c r="D14" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="E14" s="38"/>
+      <c r="E14" s="38">
+        <v>3</v>
+      </c>
       <c r="F14" s="39"/>
       <c r="H14" s="1" t="s">
         <v>114</v>
       </c>
       <c r="I14">
         <f>SUMIF(A:A,H14,E:E)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>115</v>
       </c>
@@ -1560,7 +1569,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>116</v>
       </c>
@@ -1587,7 +1596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>117</v>
       </c>
@@ -1614,7 +1623,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
         <v>114</v>
       </c>
@@ -1638,10 +1647,10 @@
       </c>
       <c r="I18">
         <f>SUM(I14:I17)</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>115</v>
       </c>
@@ -1661,7 +1670,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>116</v>
       </c>
@@ -1681,7 +1690,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>117</v>
       </c>
@@ -1701,23 +1710,27 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
         <v>114</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="33"/>
+      <c r="C22" s="33" t="s">
+        <v>144</v>
+      </c>
       <c r="D22" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="E22" s="33"/>
+      <c r="E22" s="33">
+        <v>3</v>
+      </c>
       <c r="F22" s="34" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>115</v>
       </c>
@@ -1733,7 +1746,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>116</v>
       </c>
@@ -1753,7 +1766,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="45" t="s">
         <v>117</v>
       </c>
@@ -1773,23 +1786,27 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
         <v>114</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="C26" s="33"/>
+      <c r="C26" s="33" t="s">
+        <v>144</v>
+      </c>
       <c r="D26" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="E26" s="33"/>
+      <c r="E26" s="33">
+        <v>1.5</v>
+      </c>
       <c r="F26" s="43" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>115</v>
       </c>
@@ -1805,7 +1822,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>116</v>
       </c>
@@ -1825,7 +1842,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="45" t="s">
         <v>117</v>
       </c>
@@ -1845,7 +1862,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name korrigieren" promptTitle="Name falsch" sqref="A1:A29">
@@ -1868,19 +1885,19 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="24" customWidth="1"/>
-    <col min="6" max="6" width="28.5" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
     <col min="7" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
@@ -1903,7 +1920,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>114</v>
       </c>
@@ -1930,7 +1947,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>115</v>
       </c>
@@ -1957,7 +1974,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>116</v>
       </c>
@@ -1984,7 +2001,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>117</v>
       </c>
@@ -2011,7 +2028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>114</v>
       </c>
@@ -2038,7 +2055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>115</v>
       </c>
@@ -2065,7 +2082,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>116</v>
       </c>
@@ -2085,7 +2102,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>117</v>
       </c>
@@ -2105,7 +2122,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>115</v>
       </c>
@@ -2131,7 +2148,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>114</v>
       </c>
@@ -2158,7 +2175,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>117</v>
       </c>
@@ -2185,7 +2202,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>116</v>
       </c>
@@ -2212,7 +2229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>114</v>
       </c>
@@ -2228,7 +2245,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>115</v>
       </c>
@@ -2255,7 +2272,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>116</v>
       </c>
@@ -2275,7 +2292,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>117</v>
       </c>
@@ -2295,7 +2312,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>114</v>
       </c>
@@ -2315,7 +2332,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>115</v>
       </c>
@@ -2335,7 +2352,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -2355,7 +2372,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -2375,7 +2392,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>114</v>
       </c>
@@ -2395,7 +2412,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -2415,7 +2432,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>116</v>
       </c>
@@ -2435,7 +2452,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -2455,7 +2472,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>114</v>
       </c>
@@ -2475,7 +2492,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>115</v>
       </c>
@@ -2495,7 +2512,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>116</v>
       </c>
@@ -2515,7 +2532,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>117</v>
       </c>
@@ -2535,7 +2552,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>117</v>
       </c>
@@ -2555,7 +2572,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>117</v>
       </c>
@@ -2575,7 +2592,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -2595,7 +2612,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>115</v>
       </c>
@@ -2615,7 +2632,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>115</v>
       </c>
@@ -2635,7 +2652,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>115</v>
       </c>
@@ -2655,7 +2672,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>115</v>
       </c>
@@ -2675,7 +2692,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -2695,7 +2712,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>115</v>
       </c>
@@ -2715,7 +2732,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>115</v>
       </c>
@@ -2735,7 +2752,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>115</v>
       </c>
@@ -2755,7 +2772,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -2775,7 +2792,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>115</v>
       </c>
@@ -2795,7 +2812,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>115</v>
       </c>
@@ -2815,7 +2832,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>115</v>
       </c>
@@ -2835,7 +2852,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>115</v>
       </c>
@@ -2855,7 +2872,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>115</v>
       </c>
@@ -2875,7 +2892,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>115</v>
       </c>
@@ -2895,7 +2912,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>115</v>
       </c>
@@ -2937,18 +2954,18 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="26" customWidth="1"/>
-    <col min="6" max="6" width="31.5" customWidth="1"/>
-    <col min="7" max="7" width="22.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
@@ -2971,7 +2988,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>117</v>
       </c>
@@ -2986,7 +3003,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>114</v>
       </c>
@@ -3013,7 +3030,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>114</v>
       </c>
@@ -3040,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -3067,7 +3084,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -3083,7 +3100,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -3109,7 +3126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -3136,7 +3153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -3163,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>0</v>
       </c>
@@ -3178,7 +3195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -3194,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -3210,7 +3227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -3220,7 +3237,7 @@
       <c r="E13" s="28"/>
       <c r="F13" s="17"/>
     </row>
-    <row r="14" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>0</v>
       </c>
@@ -3228,7 +3245,7 @@
       <c r="C14" s="1"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
@@ -3237,7 +3254,7 @@
       <c r="E15" s="27"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -3246,7 +3263,7 @@
       <c r="E16" s="27"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -3256,7 +3273,7 @@
       <c r="E17" s="28"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -3276,7 +3293,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -3296,7 +3313,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -3316,7 +3333,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -3336,7 +3353,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -3356,7 +3373,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -3376,7 +3393,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -3418,14 +3435,14 @@
       <selection activeCell="H13" sqref="H13:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
@@ -3448,7 +3465,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -3464,7 +3481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3480,7 +3497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -3496,7 +3513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -3513,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -3530,7 +3547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -3546,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -3562,7 +3579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -3572,7 +3589,7 @@
       <c r="E9" s="15"/>
       <c r="F9" s="17"/>
     </row>
-    <row r="10" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>0</v>
       </c>
@@ -3581,7 +3598,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -3590,7 +3607,7 @@
       <c r="E11" s="14"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -3605,7 +3622,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -3622,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>0</v>
       </c>
@@ -3638,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
@@ -3654,7 +3671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -3670,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -3687,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name korrigieren" promptTitle="Name falsch" sqref="A1:A21">
@@ -3709,13 +3726,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="24" customWidth="1"/>
+    <col min="1" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F1" s="24" t="s">
         <v>72</v>
       </c>
@@ -3723,19 +3740,19 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="F2" s="24">
         <f>Projektmanagement!I18</f>
-        <v>43</v>
+        <v>50.5</v>
       </c>
       <c r="H2">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
@@ -3744,16 +3761,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>37</v>
       </c>
       <c r="F4" s="24">
         <f>Projektmanagement!J5</f>
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -3762,7 +3779,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -3771,7 +3788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>45</v>
       </c>
@@ -3780,7 +3797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -3792,7 +3809,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>34</v>
       </c>
@@ -3801,7 +3818,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -3810,7 +3827,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -3819,7 +3836,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -3828,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>35</v>
       </c>
@@ -3837,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -3849,7 +3866,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
@@ -3858,7 +3875,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -3867,7 +3884,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -3876,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -3885,7 +3902,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -3897,7 +3914,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>18</v>
       </c>
@@ -3906,7 +3923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>19</v>
       </c>
@@ -3915,7 +3932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -3924,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>21</v>
       </c>
@@ -3933,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>22</v>
       </c>
@@ -3942,7 +3959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>23</v>
       </c>

--- a/Zeitaufzeichnung_richtig.xlsx
+++ b/Zeitaufzeichnung_richtig.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan Langela\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Schule\ITP\Döner_Spotted\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17655" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10550"/>
   </bookViews>
   <sheets>
     <sheet name="Projektmanagement" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="146">
   <si>
     <t>Kaiser</t>
   </si>
@@ -426,9 +426,6 @@
     <t>App mit Map</t>
   </si>
   <si>
-    <t>Lastenheft vollständig</t>
-  </si>
-  <si>
     <t>Projektantrag fertig</t>
   </si>
   <si>
@@ -453,19 +450,25 @@
     <t>Pflichtenheft</t>
   </si>
   <si>
-    <t>Funktionen/Daten/Termine</t>
-  </si>
-  <si>
     <t>Pflichtenheft fertig</t>
   </si>
   <si>
-    <t>Pflichtenheft draft</t>
-  </si>
-  <si>
     <t>Zielbestimmung, Produkteinsatz, Benutzerschnittstellen, Vertragsgegenstand</t>
   </si>
   <si>
     <t>Aktivitäts Diagramm/ Einführung/Produktleistungen</t>
+  </si>
+  <si>
+    <t>Funktionen/Daten/Termine + Zeitaufzeichnung + Projekthandbuch</t>
+  </si>
+  <si>
+    <t>Funktionen/Daten/Termine + Machbarkeitsstudie</t>
+  </si>
+  <si>
+    <t>Pflichtenheft draft + Machbarkeitsstudie fertig</t>
+  </si>
+  <si>
+    <t>Lastenheft vollständig + Machbarkeitsstudie draft</t>
   </si>
 </sst>
 </file>
@@ -473,8 +476,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -706,7 +709,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -729,11 +732,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1166,25 +1169,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+    <col min="2" max="2" width="45.81640625" customWidth="1"/>
+    <col min="3" max="3" width="26.7265625" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="6" max="6" width="47.1796875" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="29.453125" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="45"/>
       <c r="B1" s="45" t="s">
         <v>24</v>
@@ -1208,7 +1211,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="29" t="s">
         <v>114</v>
       </c>
@@ -1225,7 +1228,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>8</v>
@@ -1235,7 +1238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="29" t="s">
         <v>115</v>
       </c>
@@ -1262,7 +1265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="29" t="s">
         <v>116</v>
       </c>
@@ -1289,7 +1292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="29" t="s">
         <v>117</v>
       </c>
@@ -1316,7 +1319,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="29" t="s">
         <v>114</v>
       </c>
@@ -1333,17 +1336,17 @@
         <v>1</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="29" t="s">
         <v>115</v>
       </c>
@@ -1360,7 +1363,7 @@
         <v>1.5</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H7" t="s">
         <v>128</v>
@@ -1370,7 +1373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="29" t="s">
         <v>116</v>
       </c>
@@ -1387,7 +1390,7 @@
         <v>1.5</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>129</v>
@@ -1397,7 +1400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="29" t="s">
         <v>117</v>
       </c>
@@ -1414,17 +1417,17 @@
         <v>1</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="35" t="s">
         <v>114</v>
       </c>
@@ -1441,17 +1444,17 @@
         <v>0.5</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>36</v>
       </c>
       <c r="J10">
         <f>SUM(J2:J9)</f>
-        <v>50.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="29" t="s">
         <v>115</v>
       </c>
@@ -1468,10 +1471,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="29" t="s">
         <v>116</v>
       </c>
@@ -1488,13 +1491,13 @@
         <v>1</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="29" t="s">
         <v>117</v>
       </c>
@@ -1511,13 +1514,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="29" t="s">
         <v>114</v>
       </c>
@@ -1542,7 +1545,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="29" t="s">
         <v>115</v>
       </c>
@@ -1569,7 +1572,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="29" t="s">
         <v>116</v>
       </c>
@@ -1586,17 +1589,17 @@
         <v>1.5</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>116</v>
       </c>
       <c r="I16">
         <f>SUMIF(A:A,H16,E:E)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="29" t="s">
         <v>117</v>
       </c>
@@ -1613,7 +1616,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>117</v>
@@ -1623,7 +1626,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="30" t="s">
         <v>114</v>
       </c>
@@ -1640,17 +1643,17 @@
         <v>2.5</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="H18" s="19" t="s">
         <v>36</v>
       </c>
       <c r="I18">
         <f>SUM(I14:I17)</f>
-        <v>50.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="29" t="s">
         <v>115</v>
       </c>
@@ -1667,18 +1670,18 @@
         <v>3</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="29" t="s">
         <v>116</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>127</v>
@@ -1687,18 +1690,18 @@
         <v>4.5</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="29" t="s">
         <v>117</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>127</v>
@@ -1707,162 +1710,162 @@
         <v>4</v>
       </c>
       <c r="F21" s="44" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="30" t="s">
         <v>114</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E22" s="33">
         <v>3</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="29" t="s">
         <v>115</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="43" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="29" t="s">
         <v>116</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E24" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F24" s="43" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="45" t="s">
         <v>117</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E25" s="2">
         <v>3</v>
       </c>
       <c r="F25" s="44" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="30" t="s">
         <v>114</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E26" s="33">
         <v>1.5</v>
       </c>
       <c r="F26" s="43" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="29" t="s">
         <v>115</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="43" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="29" t="s">
         <v>116</v>
       </c>
       <c r="B28" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="27">
+        <v>3</v>
+      </c>
+      <c r="F28" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E28" s="27">
-        <v>1.5</v>
-      </c>
-      <c r="F28" s="43" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="45" t="s">
         <v>117</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E29" s="2">
         <v>1.5</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name korrigieren" promptTitle="Name falsch" sqref="A1:A29">
@@ -1885,19 +1888,19 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="30.453125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="28.453125" customWidth="1"/>
     <col min="7" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
@@ -1920,7 +1923,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>114</v>
       </c>
@@ -1947,7 +1950,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>115</v>
       </c>
@@ -1974,7 +1977,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>116</v>
       </c>
@@ -2001,7 +2004,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>117</v>
       </c>
@@ -2028,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>114</v>
       </c>
@@ -2055,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>115</v>
       </c>
@@ -2082,7 +2085,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>116</v>
       </c>
@@ -2102,7 +2105,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>117</v>
       </c>
@@ -2122,7 +2125,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>115</v>
       </c>
@@ -2148,7 +2151,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>114</v>
       </c>
@@ -2175,7 +2178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>117</v>
       </c>
@@ -2202,7 +2205,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>116</v>
       </c>
@@ -2229,7 +2232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>114</v>
       </c>
@@ -2245,7 +2248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>115</v>
       </c>
@@ -2272,7 +2275,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>116</v>
       </c>
@@ -2292,7 +2295,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>117</v>
       </c>
@@ -2312,7 +2315,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>114</v>
       </c>
@@ -2332,7 +2335,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>115</v>
       </c>
@@ -2352,7 +2355,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -2372,7 +2375,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -2392,7 +2395,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>114</v>
       </c>
@@ -2412,7 +2415,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -2432,7 +2435,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>116</v>
       </c>
@@ -2452,7 +2455,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -2472,7 +2475,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>114</v>
       </c>
@@ -2492,7 +2495,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>115</v>
       </c>
@@ -2512,7 +2515,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>116</v>
       </c>
@@ -2532,7 +2535,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>117</v>
       </c>
@@ -2552,7 +2555,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>117</v>
       </c>
@@ -2572,7 +2575,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>117</v>
       </c>
@@ -2592,7 +2595,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -2612,7 +2615,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>115</v>
       </c>
@@ -2632,7 +2635,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>115</v>
       </c>
@@ -2652,7 +2655,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>115</v>
       </c>
@@ -2672,7 +2675,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>115</v>
       </c>
@@ -2692,7 +2695,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -2712,7 +2715,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>115</v>
       </c>
@@ -2732,7 +2735,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>115</v>
       </c>
@@ -2752,7 +2755,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>115</v>
       </c>
@@ -2772,7 +2775,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -2792,7 +2795,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>115</v>
       </c>
@@ -2812,7 +2815,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>115</v>
       </c>
@@ -2832,7 +2835,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>115</v>
       </c>
@@ -2852,7 +2855,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>115</v>
       </c>
@@ -2872,7 +2875,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>115</v>
       </c>
@@ -2892,7 +2895,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>115</v>
       </c>
@@ -2912,7 +2915,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>115</v>
       </c>
@@ -2954,18 +2957,18 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.1796875" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="31.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="31.453125" customWidth="1"/>
+    <col min="7" max="7" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
@@ -2988,7 +2991,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>117</v>
       </c>
@@ -3003,7 +3006,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>114</v>
       </c>
@@ -3030,7 +3033,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>114</v>
       </c>
@@ -3057,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -3084,7 +3087,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -3100,7 +3103,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -3126,7 +3129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -3153,7 +3156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -3180,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>0</v>
       </c>
@@ -3195,7 +3198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -3211,7 +3214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -3227,7 +3230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -3237,7 +3240,7 @@
       <c r="E13" s="28"/>
       <c r="F13" s="17"/>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>0</v>
       </c>
@@ -3245,7 +3248,7 @@
       <c r="C14" s="1"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
@@ -3254,7 +3257,7 @@
       <c r="E15" s="27"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -3263,7 +3266,7 @@
       <c r="E16" s="27"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -3273,7 +3276,7 @@
       <c r="E17" s="28"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -3293,7 +3296,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -3313,7 +3316,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -3333,7 +3336,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -3353,7 +3356,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -3373,7 +3376,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -3393,7 +3396,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -3435,14 +3438,14 @@
       <selection activeCell="H13" sqref="H13:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
@@ -3465,7 +3468,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -3481,7 +3484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3497,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -3513,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -3530,7 +3533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -3547,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -3563,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -3579,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -3589,7 +3592,7 @@
       <c r="E9" s="15"/>
       <c r="F9" s="17"/>
     </row>
-    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>0</v>
       </c>
@@ -3598,7 +3601,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -3607,7 +3610,7 @@
       <c r="E11" s="14"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -3622,7 +3625,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -3639,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>0</v>
       </c>
@@ -3655,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
@@ -3671,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -3687,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -3704,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name korrigieren" promptTitle="Name falsch" sqref="A1:A21">
@@ -3726,13 +3729,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="24" customWidth="1"/>
+    <col min="1" max="5" width="10.81640625" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F1" s="24" t="s">
         <v>72</v>
       </c>
@@ -3740,19 +3743,19 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="F2" s="24">
         <f>Projektmanagement!I18</f>
-        <v>50.5</v>
+        <v>53</v>
       </c>
       <c r="H2">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
@@ -3761,7 +3764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>37</v>
       </c>
@@ -3770,7 +3773,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -3779,7 +3782,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -3788,7 +3791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="19" t="s">
         <v>45</v>
       </c>
@@ -3797,7 +3800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -3809,7 +3812,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
         <v>34</v>
       </c>
@@ -3818,7 +3821,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -3827,7 +3830,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -3836,7 +3839,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -3845,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>35</v>
       </c>
@@ -3854,7 +3857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -3866,7 +3869,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
@@ -3875,7 +3878,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -3884,7 +3887,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -3893,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -3902,7 +3905,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -3914,7 +3917,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B20" s="8" t="s">
         <v>18</v>
       </c>
@@ -3923,7 +3926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>19</v>
       </c>
@@ -3932,7 +3935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -3941,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>21</v>
       </c>
@@ -3950,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>22</v>
       </c>
@@ -3959,7 +3962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>23</v>
       </c>

--- a/Zeitaufzeichnung_richtig.xlsx
+++ b/Zeitaufzeichnung_richtig.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12510" windowHeight="6790"/>
   </bookViews>
   <sheets>
     <sheet name="Projektmanagement" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="152">
   <si>
     <t>Kaiser</t>
   </si>
@@ -469,6 +469,24 @@
   </si>
   <si>
     <t>Lastenheft vollständig + Machbarkeitsstudie draft</t>
+  </si>
+  <si>
+    <t>Projekthandbuch</t>
+  </si>
+  <si>
+    <t>Projekthandbuch draft</t>
+  </si>
+  <si>
+    <t>PSP, Meilensteinplan</t>
+  </si>
+  <si>
+    <t>Projektauftrag, Ansprechpartner</t>
+  </si>
+  <si>
+    <t>App</t>
+  </si>
+  <si>
+    <t>13.03.2017- 20.03.2017</t>
   </si>
 </sst>
 </file>
@@ -1167,10 +1185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1234,7 +1252,7 @@
         <v>8</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J9" si="0">SUMIF(B:B,H2,E:E)</f>
+        <f t="shared" ref="J2:J8" si="0">SUMIF(B:B,H2,E:E)</f>
         <v>0</v>
       </c>
     </row>
@@ -1370,7 +1388,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1423,8 +1441,8 @@
         <v>138</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>SUMIF(B:B,H9,E:E)</f>
+        <v>20.5</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1446,12 +1464,12 @@
       <c r="F10" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="H10" s="19" t="s">
-        <v>36</v>
+      <c r="H10" t="s">
+        <v>146</v>
       </c>
       <c r="J10">
-        <f>SUM(J2:J9)</f>
-        <v>53</v>
+        <f>SUMIF(B:B,H10,E:E)</f>
+        <v>3.5</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1473,6 +1491,13 @@
       <c r="F11" s="16" t="s">
         <v>132</v>
       </c>
+      <c r="H11" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11">
+        <f>SUM(J2:J10)</f>
+        <v>65</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="29" t="s">
@@ -1493,9 +1518,6 @@
       <c r="F12" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="I12" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="13" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="29" t="s">
@@ -1516,8 +1538,8 @@
       <c r="F13" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="H13" t="s">
-        <v>40</v>
+      <c r="I13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1537,12 +1559,8 @@
         <v>3</v>
       </c>
       <c r="F14" s="39"/>
-      <c r="H14" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I14">
-        <f>SUMIF(A:A,H14,E:E)</f>
-        <v>13.5</v>
+      <c r="H14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1565,11 +1583,11 @@
         <v>130</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I15">
         <f>SUMIF(A:A,H15,E:E)</f>
-        <v>9.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1592,11 +1610,11 @@
         <v>133</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I16">
         <f>SUMIF(A:A,H16,E:E)</f>
-        <v>16.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1619,11 +1637,11 @@
         <v>133</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I17">
         <f>SUMIF(A:A,H17,E:E)</f>
-        <v>13.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1645,12 +1663,12 @@
       <c r="F18" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="H18" s="19" t="s">
-        <v>36</v>
+      <c r="H18" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="I18">
-        <f>SUM(I14:I17)</f>
-        <v>53</v>
+        <f>SUMIF(A:A,H18,E:E)</f>
+        <v>15.5</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1672,6 +1690,13 @@
       <c r="F19" s="43" t="s">
         <v>145</v>
       </c>
+      <c r="H19" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19">
+        <f>SUM(I15:I18)</f>
+        <v>65</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="29" t="s">
@@ -1744,7 +1769,9 @@
       <c r="D23" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="19">
+        <v>3</v>
+      </c>
       <c r="F23" s="43" t="s">
         <v>144</v>
       </c>
@@ -1820,7 +1847,9 @@
       <c r="D27" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="19">
+        <v>1.5</v>
+      </c>
       <c r="F27" s="43" t="s">
         <v>139</v>
       </c>
@@ -1865,13 +1894,93 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="F30" s="43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" s="19">
+        <v>2</v>
+      </c>
+      <c r="F31" s="43" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" s="27">
+        <v>2</v>
+      </c>
+      <c r="F32" s="43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2</v>
+      </c>
+      <c r="F33" s="44" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name korrigieren" promptTitle="Name falsch" sqref="A1:A29">
-      <formula1>$H$14:$H$17</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name korrigieren" promptTitle="Name falsch" sqref="A1:A33">
+      <formula1>$H$15:$H$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Eingabe korrigieren" promptTitle="Falsche Eingabe" sqref="C10:C13 B1 C19 C23 C27 B10:B21 B30:B65536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Eingabe korrigieren" promptTitle="Falsche Eingabe" sqref="C10:C13 B1 C19 C23 C27 B10:B21 B30:B65536 H10">
       <formula1>$H$2:$H$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -3748,8 +3857,8 @@
         <v>74</v>
       </c>
       <c r="F2" s="24">
-        <f>Projektmanagement!I18</f>
-        <v>53</v>
+        <f>Projektmanagement!I19</f>
+        <v>65</v>
       </c>
       <c r="H2">
         <v>25</v>
@@ -3788,7 +3897,7 @@
       </c>
       <c r="F6" s="24">
         <f>Projektmanagement!J7</f>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">

--- a/Zeitaufzeichnung_richtig.xlsx
+++ b/Zeitaufzeichnung_richtig.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="153">
   <si>
     <t>Kaiser</t>
   </si>
@@ -487,6 +487,9 @@
   </si>
   <si>
     <t>13.03.2017- 20.03.2017</t>
+  </si>
+  <si>
+    <t>21.03.2017- 28.03.2017</t>
   </si>
 </sst>
 </file>
@@ -1185,10 +1188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="C9" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1388,7 +1391,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1469,7 +1472,7 @@
       </c>
       <c r="J10">
         <f>SUMIF(B:B,H10,E:E)</f>
-        <v>3.5</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1496,7 +1499,7 @@
       </c>
       <c r="J11">
         <f>SUM(J2:J10)</f>
-        <v>65</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1587,7 +1590,7 @@
       </c>
       <c r="I15">
         <f>SUMIF(A:A,H15,E:E)</f>
-        <v>15</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1614,7 +1617,7 @@
       </c>
       <c r="I16">
         <f>SUMIF(A:A,H16,E:E)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1641,7 +1644,7 @@
       </c>
       <c r="I17">
         <f>SUMIF(A:A,H17,E:E)</f>
-        <v>18.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1668,7 +1671,7 @@
       </c>
       <c r="I18">
         <f>SUMIF(A:A,H18,E:E)</f>
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1695,7 +1698,7 @@
       </c>
       <c r="I19">
         <f>SUM(I15:I18)</f>
-        <v>65</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1974,13 +1977,93 @@
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="E34" s="33">
+        <v>1.2</v>
+      </c>
+      <c r="F34" s="43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E35" s="19">
+        <v>2</v>
+      </c>
+      <c r="F35" s="43" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E36" s="27">
+        <v>2</v>
+      </c>
+      <c r="F36" s="43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2</v>
+      </c>
+      <c r="F37" s="44" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name korrigieren" promptTitle="Name falsch" sqref="A1:A33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name korrigieren" promptTitle="Name falsch" sqref="A1:A37">
       <formula1>$H$15:$H$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Eingabe korrigieren" promptTitle="Falsche Eingabe" sqref="C10:C13 B1 C19 C23 C27 B10:B21 B30:B65536 H10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Eingabe korrigieren" promptTitle="Falsche Eingabe" sqref="C10:C13 B1 C19 C23 C27 B10:B21 H10 B30:B65536">
       <formula1>$H$2:$H$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -3858,7 +3941,7 @@
       </c>
       <c r="F2" s="24">
         <f>Projektmanagement!I19</f>
-        <v>65</v>
+        <v>72.2</v>
       </c>
       <c r="H2">
         <v>25</v>
@@ -3897,7 +3980,7 @@
       </c>
       <c r="F6" s="24">
         <f>Projektmanagement!J7</f>
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">

--- a/Zeitaufzeichnung_richtig.xlsx
+++ b/Zeitaufzeichnung_richtig.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Schule\ITP\Döner_Spotted\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janpilu Laptop\Documents\Schule\3AHIT\ITP2(RAFW)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12510" windowHeight="6790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="Projektmanagement" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="154">
   <si>
     <t>Kaiser</t>
   </si>
@@ -490,6 +490,9 @@
   </si>
   <si>
     <t>21.03.2017- 28.03.2017</t>
+  </si>
+  <si>
+    <t>PHB - Projektzielplan</t>
   </si>
 </sst>
 </file>
@@ -785,8 +788,36 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1190,25 +1221,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" customWidth="1"/>
-    <col min="3" max="3" width="26.7265625" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="47.1796875" customWidth="1"/>
+    <col min="6" max="6" width="47.21875" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" customWidth="1"/>
-    <col min="10" max="10" width="14.81640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="45"/>
       <c r="B1" s="45" t="s">
         <v>24</v>
@@ -1232,7 +1263,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>114</v>
       </c>
@@ -1259,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
         <v>115</v>
       </c>
@@ -1286,7 +1317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>116</v>
       </c>
@@ -1313,7 +1344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>117</v>
       </c>
@@ -1340,7 +1371,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
         <v>114</v>
       </c>
@@ -1367,7 +1398,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29" t="s">
         <v>115</v>
       </c>
@@ -1394,7 +1425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="29" t="s">
         <v>116</v>
       </c>
@@ -1421,7 +1452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="29" t="s">
         <v>117</v>
       </c>
@@ -1448,7 +1479,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="35" t="s">
         <v>114</v>
       </c>
@@ -1472,10 +1503,10 @@
       </c>
       <c r="J10">
         <f>SUMIF(B:B,H10,E:E)</f>
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="29" t="s">
         <v>115</v>
       </c>
@@ -1499,10 +1530,10 @@
       </c>
       <c r="J11">
         <f>SUM(J2:J10)</f>
-        <v>72.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="29" t="s">
         <v>116</v>
       </c>
@@ -1522,7 +1553,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="29" t="s">
         <v>117</v>
       </c>
@@ -1545,7 +1576,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="29" t="s">
         <v>114</v>
       </c>
@@ -1566,7 +1597,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="29" t="s">
         <v>115</v>
       </c>
@@ -1590,10 +1621,10 @@
       </c>
       <c r="I15">
         <f>SUMIF(A:A,H15,E:E)</f>
-        <v>16.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="29" t="s">
         <v>116</v>
       </c>
@@ -1620,7 +1651,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>117</v>
       </c>
@@ -1647,7 +1678,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="30" t="s">
         <v>114</v>
       </c>
@@ -1674,7 +1705,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="29" t="s">
         <v>115</v>
       </c>
@@ -1698,10 +1729,10 @@
       </c>
       <c r="I19">
         <f>SUM(I15:I18)</f>
-        <v>72.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="29" t="s">
         <v>116</v>
       </c>
@@ -1721,7 +1752,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="29" t="s">
         <v>117</v>
       </c>
@@ -1741,7 +1772,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="30" t="s">
         <v>114</v>
       </c>
@@ -1761,7 +1792,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="29" t="s">
         <v>115</v>
       </c>
@@ -1779,7 +1810,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>116</v>
       </c>
@@ -1799,7 +1830,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="45" t="s">
         <v>117</v>
       </c>
@@ -1819,7 +1850,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="30" t="s">
         <v>114</v>
       </c>
@@ -1839,7 +1870,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="29" t="s">
         <v>115</v>
       </c>
@@ -1857,7 +1888,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="29" t="s">
         <v>116</v>
       </c>
@@ -1877,7 +1908,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="45" t="s">
         <v>117</v>
       </c>
@@ -1897,7 +1928,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="30" t="s">
         <v>114</v>
       </c>
@@ -1911,13 +1942,13 @@
         <v>151</v>
       </c>
       <c r="E30" s="33">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F30" s="43" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>115</v>
       </c>
@@ -1937,7 +1968,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="29" t="s">
         <v>116</v>
       </c>
@@ -1957,7 +1988,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="29" t="s">
         <v>117</v>
       </c>
@@ -1977,7 +2008,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="30" t="s">
         <v>114</v>
       </c>
@@ -1985,19 +2016,19 @@
         <v>146</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D34" s="37" t="s">
         <v>152</v>
       </c>
       <c r="E34" s="33">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="F34" s="43" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="29" t="s">
         <v>115</v>
       </c>
@@ -2017,7 +2048,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="29" t="s">
         <v>116</v>
       </c>
@@ -2037,7 +2068,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="29" t="s">
         <v>117</v>
       </c>
@@ -2057,7 +2088,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name korrigieren" promptTitle="Name falsch" sqref="A1:A37">
@@ -2080,19 +2111,19 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
-    <col min="3" max="3" width="30.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="28.453125" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
     <col min="7" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
@@ -2115,7 +2146,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>114</v>
       </c>
@@ -2142,7 +2173,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>115</v>
       </c>
@@ -2169,7 +2200,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>116</v>
       </c>
@@ -2196,7 +2227,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>117</v>
       </c>
@@ -2223,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>114</v>
       </c>
@@ -2250,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>115</v>
       </c>
@@ -2277,7 +2308,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>116</v>
       </c>
@@ -2297,7 +2328,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>117</v>
       </c>
@@ -2317,7 +2348,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>115</v>
       </c>
@@ -2343,7 +2374,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>114</v>
       </c>
@@ -2370,7 +2401,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>117</v>
       </c>
@@ -2397,7 +2428,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>116</v>
       </c>
@@ -2424,7 +2455,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>114</v>
       </c>
@@ -2440,7 +2471,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>115</v>
       </c>
@@ -2467,7 +2498,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>116</v>
       </c>
@@ -2487,7 +2518,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>117</v>
       </c>
@@ -2507,7 +2538,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>114</v>
       </c>
@@ -2527,7 +2558,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>115</v>
       </c>
@@ -2547,7 +2578,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -2567,7 +2598,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -2587,7 +2618,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>114</v>
       </c>
@@ -2607,7 +2638,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -2627,7 +2658,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>116</v>
       </c>
@@ -2647,7 +2678,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -2667,7 +2698,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>114</v>
       </c>
@@ -2687,7 +2718,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>115</v>
       </c>
@@ -2707,7 +2738,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>116</v>
       </c>
@@ -2727,7 +2758,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>117</v>
       </c>
@@ -2747,7 +2778,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>117</v>
       </c>
@@ -2767,7 +2798,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>117</v>
       </c>
@@ -2787,7 +2818,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -2807,7 +2838,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>115</v>
       </c>
@@ -2827,7 +2858,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>115</v>
       </c>
@@ -2847,7 +2878,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>115</v>
       </c>
@@ -2867,7 +2898,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>115</v>
       </c>
@@ -2887,7 +2918,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -2907,7 +2938,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>115</v>
       </c>
@@ -2927,7 +2958,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>115</v>
       </c>
@@ -2947,7 +2978,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>115</v>
       </c>
@@ -2967,7 +2998,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -2987,7 +3018,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>115</v>
       </c>
@@ -3007,7 +3038,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>115</v>
       </c>
@@ -3027,7 +3058,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>115</v>
       </c>
@@ -3047,7 +3078,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>115</v>
       </c>
@@ -3067,7 +3098,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>115</v>
       </c>
@@ -3087,7 +3118,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>115</v>
       </c>
@@ -3107,7 +3138,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>115</v>
       </c>
@@ -3149,18 +3180,18 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="32.1796875" customWidth="1"/>
+    <col min="3" max="3" width="32.21875" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="31.453125" customWidth="1"/>
-    <col min="7" max="7" width="22.81640625" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="31.44140625" customWidth="1"/>
+    <col min="7" max="7" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
@@ -3183,7 +3214,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>117</v>
       </c>
@@ -3198,7 +3229,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>114</v>
       </c>
@@ -3225,7 +3256,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>114</v>
       </c>
@@ -3252,7 +3283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -3279,7 +3310,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -3295,7 +3326,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -3321,7 +3352,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -3348,7 +3379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -3375,7 +3406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>0</v>
       </c>
@@ -3390,7 +3421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -3406,7 +3437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -3422,7 +3453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -3432,7 +3463,7 @@
       <c r="E13" s="28"/>
       <c r="F13" s="17"/>
     </row>
-    <row r="14" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>0</v>
       </c>
@@ -3440,7 +3471,7 @@
       <c r="C14" s="1"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
@@ -3449,7 +3480,7 @@
       <c r="E15" s="27"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -3458,7 +3489,7 @@
       <c r="E16" s="27"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -3468,7 +3499,7 @@
       <c r="E17" s="28"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -3488,7 +3519,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -3508,7 +3539,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -3528,7 +3559,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -3548,7 +3579,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -3568,7 +3599,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -3588,7 +3619,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -3630,14 +3661,14 @@
       <selection activeCell="H13" sqref="H13:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
@@ -3660,7 +3691,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -3676,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3692,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -3708,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -3725,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -3742,7 +3773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -3758,7 +3789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -3774,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -3784,7 +3815,7 @@
       <c r="E9" s="15"/>
       <c r="F9" s="17"/>
     </row>
-    <row r="10" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>0</v>
       </c>
@@ -3793,7 +3824,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -3802,7 +3833,7 @@
       <c r="E11" s="14"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -3817,7 +3848,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -3834,7 +3865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>0</v>
       </c>
@@ -3850,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
@@ -3866,7 +3897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -3882,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -3899,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name korrigieren" promptTitle="Name falsch" sqref="A1:A21">
@@ -3921,13 +3952,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="10.81640625" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" style="24" customWidth="1"/>
+    <col min="1" max="5" width="10.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F1" s="24" t="s">
         <v>72</v>
       </c>
@@ -3935,19 +3966,19 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="F2" s="24">
         <f>Projektmanagement!I19</f>
-        <v>72.2</v>
+        <v>73.5</v>
       </c>
       <c r="H2">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
@@ -3956,7 +3987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>37</v>
       </c>
@@ -3965,7 +3996,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -3974,7 +4005,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -3983,7 +4014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="19" t="s">
         <v>45</v>
       </c>
@@ -3992,7 +4023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -4004,7 +4035,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>34</v>
       </c>
@@ -4013,7 +4044,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -4022,7 +4053,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -4031,7 +4062,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -4040,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>35</v>
       </c>
@@ -4049,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -4061,7 +4092,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
@@ -4070,7 +4101,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -4079,7 +4110,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -4088,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -4097,7 +4128,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -4109,7 +4140,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>18</v>
       </c>
@@ -4118,7 +4149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>19</v>
       </c>
@@ -4127,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -4136,7 +4167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>21</v>
       </c>
@@ -4145,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>22</v>
       </c>
@@ -4154,7 +4185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>23</v>
       </c>

--- a/Zeitaufzeichnung_richtig.xlsx
+++ b/Zeitaufzeichnung_richtig.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janpilu Laptop\Documents\Schule\3AHIT\ITP2(RAFW)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Schule\ITP\Döner_Spotted\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12510" windowHeight="6790"/>
   </bookViews>
   <sheets>
     <sheet name="Projektmanagement" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="169">
   <si>
     <t>Kaiser</t>
   </si>
@@ -492,7 +492,52 @@
     <t>21.03.2017- 28.03.2017</t>
   </si>
   <si>
-    <t>PHB - Projektzielplan</t>
+    <t>29.03.2017 - 05.04.2017</t>
+  </si>
+  <si>
+    <t>06.04.2017 - 13.04.2017</t>
+  </si>
+  <si>
+    <t>14.04.2017 - 21.04.2017</t>
+  </si>
+  <si>
+    <t>22.04.2017 - 29.04.2017</t>
+  </si>
+  <si>
+    <t>30.04.2017 - 07.05.2017</t>
+  </si>
+  <si>
+    <t>Datenbank</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Tabllen, ERD</t>
+  </si>
+  <si>
+    <t>ERD</t>
+  </si>
+  <si>
+    <t>Datenbank draft</t>
+  </si>
+  <si>
+    <t>08.05.2017 - 15.05.2017</t>
+  </si>
+  <si>
+    <t>16.05.2017 - 23.05.2017</t>
+  </si>
+  <si>
+    <t>24.05.2017 - 31.05.2017</t>
+  </si>
+  <si>
+    <t>01.06.2017 - 08.06.2017</t>
+  </si>
+  <si>
+    <t>Weitere Eintragungen</t>
+  </si>
+  <si>
+    <t>RM/SQL</t>
   </si>
 </sst>
 </file>
@@ -788,36 +833,8 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1219,27 +1236,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="45.77734375" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" customWidth="1"/>
-    <col min="4" max="4" width="24.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+    <col min="2" max="2" width="45.81640625" customWidth="1"/>
+    <col min="3" max="3" width="26.7265625" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="47.21875" customWidth="1"/>
+    <col min="6" max="6" width="47.1796875" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" customWidth="1"/>
+    <col min="8" max="8" width="29.453125" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="45"/>
       <c r="B1" s="45" t="s">
         <v>24</v>
@@ -1263,7 +1280,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="29" t="s">
         <v>114</v>
       </c>
@@ -1290,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="29" t="s">
         <v>115</v>
       </c>
@@ -1317,7 +1334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="29" t="s">
         <v>116</v>
       </c>
@@ -1344,7 +1361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="29" t="s">
         <v>117</v>
       </c>
@@ -1371,7 +1388,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="29" t="s">
         <v>114</v>
       </c>
@@ -1398,7 +1415,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="29" t="s">
         <v>115</v>
       </c>
@@ -1422,10 +1439,10 @@
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="29" t="s">
         <v>116</v>
       </c>
@@ -1452,7 +1469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="29" t="s">
         <v>117</v>
       </c>
@@ -1479,7 +1496,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="35" t="s">
         <v>114</v>
       </c>
@@ -1503,10 +1520,10 @@
       </c>
       <c r="J10">
         <f>SUMIF(B:B,H10,E:E)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="29" t="s">
         <v>115</v>
       </c>
@@ -1525,15 +1542,15 @@
       <c r="F11" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="H11" s="19" t="s">
-        <v>36</v>
+      <c r="H11" t="s">
+        <v>158</v>
       </c>
       <c r="J11">
-        <f>SUM(J2:J10)</f>
-        <v>73.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <f>SUMIF(B:B,H11,E:E)</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="29" t="s">
         <v>116</v>
       </c>
@@ -1552,8 +1569,15 @@
       <c r="F12" s="16" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H12" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12">
+        <f>SUM(J2:J10)</f>
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="29" t="s">
         <v>117</v>
       </c>
@@ -1572,11 +1596,8 @@
       <c r="F13" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="I13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="29" t="s">
         <v>114</v>
       </c>
@@ -1593,11 +1614,11 @@
         <v>3</v>
       </c>
       <c r="F14" s="39"/>
-      <c r="H14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="29" t="s">
         <v>115</v>
       </c>
@@ -1616,15 +1637,11 @@
       <c r="F15" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I15">
-        <f>SUMIF(A:A,H15,E:E)</f>
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="29" t="s">
         <v>116</v>
       </c>
@@ -1644,14 +1661,14 @@
         <v>133</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I16">
         <f>SUMIF(A:A,H16,E:E)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="29" t="s">
         <v>117</v>
       </c>
@@ -1671,14 +1688,14 @@
         <v>133</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I17">
         <f>SUMIF(A:A,H17,E:E)</f>
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="30" t="s">
         <v>114</v>
       </c>
@@ -1698,14 +1715,14 @@
         <v>145</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I18">
         <f>SUMIF(A:A,H18,E:E)</f>
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="29" t="s">
         <v>115</v>
       </c>
@@ -1724,15 +1741,15 @@
       <c r="F19" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="H19" s="19" t="s">
-        <v>36</v>
+      <c r="H19" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="I19">
-        <f>SUM(I15:I18)</f>
-        <v>73.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <f>SUMIF(A:A,H19,E:E)</f>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="29" t="s">
         <v>116</v>
       </c>
@@ -1751,8 +1768,15 @@
       <c r="F20" s="43" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H20" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20">
+        <f>SUM(I16:I19)</f>
+        <v>92.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="29" t="s">
         <v>117</v>
       </c>
@@ -1772,7 +1796,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="30" t="s">
         <v>114</v>
       </c>
@@ -1792,7 +1816,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="29" t="s">
         <v>115</v>
       </c>
@@ -1810,7 +1834,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="29" t="s">
         <v>116</v>
       </c>
@@ -1830,7 +1854,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="45" t="s">
         <v>117</v>
       </c>
@@ -1850,7 +1874,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="30" t="s">
         <v>114</v>
       </c>
@@ -1870,7 +1894,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="29" t="s">
         <v>115</v>
       </c>
@@ -1888,7 +1912,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="29" t="s">
         <v>116</v>
       </c>
@@ -1908,7 +1932,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="45" t="s">
         <v>117</v>
       </c>
@@ -1928,7 +1952,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="30" t="s">
         <v>114</v>
       </c>
@@ -1942,13 +1966,13 @@
         <v>151</v>
       </c>
       <c r="E30" s="33">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F30" s="43" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="29" t="s">
         <v>115</v>
       </c>
@@ -1968,7 +1992,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="29" t="s">
         <v>116</v>
       </c>
@@ -1988,7 +2012,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="29" t="s">
         <v>117</v>
       </c>
@@ -2008,7 +2032,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="30" t="s">
         <v>114</v>
       </c>
@@ -2016,19 +2040,19 @@
         <v>146</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D34" s="37" t="s">
         <v>152</v>
       </c>
       <c r="E34" s="33">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="F34" s="43" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="29" t="s">
         <v>115</v>
       </c>
@@ -2048,7 +2072,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="29" t="s">
         <v>116</v>
       </c>
@@ -2068,7 +2092,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="29" t="s">
         <v>117</v>
       </c>
@@ -2088,13 +2112,733 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="E38" s="33">
+        <v>1.2</v>
+      </c>
+      <c r="F38" s="43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E39" s="19">
+        <v>2</v>
+      </c>
+      <c r="F39" s="43" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E40" s="27">
+        <v>2</v>
+      </c>
+      <c r="F40" s="43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E41" s="2">
+        <v>2</v>
+      </c>
+      <c r="F41" s="44" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" s="33">
+        <v>2</v>
+      </c>
+      <c r="F42" s="43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E43" s="19">
+        <v>2</v>
+      </c>
+      <c r="F43" s="43" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E44" s="27">
+        <v>2</v>
+      </c>
+      <c r="F44" s="43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" s="2">
+        <v>2</v>
+      </c>
+      <c r="F45" s="44" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="E46" s="33">
+        <v>0</v>
+      </c>
+      <c r="F46" s="43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" t="s">
+        <v>159</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E47" s="19">
+        <v>0</v>
+      </c>
+      <c r="F47" s="43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" t="s">
+        <v>159</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E48" s="27">
+        <v>0</v>
+      </c>
+      <c r="F48" s="43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E50" s="33">
+        <v>0</v>
+      </c>
+      <c r="F50" s="43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E51" s="19">
+        <v>0</v>
+      </c>
+      <c r="F51" s="43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E52" s="27">
+        <v>2.5</v>
+      </c>
+      <c r="F52" s="43" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="D54" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="E54" s="33">
+        <v>0</v>
+      </c>
+      <c r="F54" s="43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" t="s">
+        <v>159</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E55" s="19">
+        <v>0</v>
+      </c>
+      <c r="F55" s="43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" t="s">
+        <v>159</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E56" s="27">
+        <v>0</v>
+      </c>
+      <c r="F56" s="43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="F57" s="44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>159</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="D58" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="E58" s="33">
+        <v>0</v>
+      </c>
+      <c r="F58" s="43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" t="s">
+        <v>159</v>
+      </c>
+      <c r="C59" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E59" s="19">
+        <v>0</v>
+      </c>
+      <c r="F59" s="43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" t="s">
+        <v>168</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E60" s="27">
+        <v>1</v>
+      </c>
+      <c r="F60" s="43" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
+      <c r="F61" s="44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" t="s">
+        <v>159</v>
+      </c>
+      <c r="C62" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="D62" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="E62" s="33">
+        <v>0</v>
+      </c>
+      <c r="F62" s="43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" t="s">
+        <v>159</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E63" s="19">
+        <v>0</v>
+      </c>
+      <c r="F63" s="43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64" t="s">
+        <v>159</v>
+      </c>
+      <c r="C64" t="s">
+        <v>159</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E64" s="27">
+        <v>0</v>
+      </c>
+      <c r="F64" s="43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+      <c r="F65" s="44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" t="s">
+        <v>159</v>
+      </c>
+      <c r="C66" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="D66" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="E66" s="33">
+        <v>0</v>
+      </c>
+      <c r="F66" s="43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" t="s">
+        <v>159</v>
+      </c>
+      <c r="C67" t="s">
+        <v>159</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E67" s="19">
+        <v>0</v>
+      </c>
+      <c r="F67" s="43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" t="s">
+        <v>146</v>
+      </c>
+      <c r="C68" t="s">
+        <v>167</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E68" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="F68" s="43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0</v>
+      </c>
+      <c r="F69" s="44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="D70" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="E70" s="33">
+        <v>0</v>
+      </c>
+      <c r="F70" s="43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B71" t="s">
+        <v>159</v>
+      </c>
+      <c r="C71" t="s">
+        <v>159</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E71" s="19">
+        <v>0</v>
+      </c>
+      <c r="F71" s="43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" t="s">
+        <v>159</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E72" s="27">
+        <v>0</v>
+      </c>
+      <c r="F72" s="43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0</v>
+      </c>
+      <c r="F73" s="44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name korrigieren" promptTitle="Name falsch" sqref="A1:A37">
-      <formula1>$H$15:$H$18</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name korrigieren" promptTitle="Name falsch" sqref="A1:A73">
+      <formula1>$H$16:$H$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Eingabe korrigieren" promptTitle="Falsche Eingabe" sqref="C10:C13 B1 C19 C23 C27 B10:B21 H10 B30:B65536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Eingabe korrigieren" promptTitle="Falsche Eingabe" sqref="C10:C13 B1 C19 C23 C27 B10:B21 H10:H11 C56 C60 C64 C68 B30:B65536 C72">
       <formula1>$H$2:$H$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -2111,19 +2855,19 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="30.453125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="28.453125" customWidth="1"/>
     <col min="7" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
@@ -2146,7 +2890,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>114</v>
       </c>
@@ -2173,7 +2917,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>115</v>
       </c>
@@ -2200,7 +2944,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>116</v>
       </c>
@@ -2227,7 +2971,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>117</v>
       </c>
@@ -2254,7 +2998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>114</v>
       </c>
@@ -2281,7 +3025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>115</v>
       </c>
@@ -2308,7 +3052,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>116</v>
       </c>
@@ -2328,7 +3072,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>117</v>
       </c>
@@ -2348,7 +3092,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>115</v>
       </c>
@@ -2374,7 +3118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>114</v>
       </c>
@@ -2401,7 +3145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>117</v>
       </c>
@@ -2428,7 +3172,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>116</v>
       </c>
@@ -2455,7 +3199,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>114</v>
       </c>
@@ -2471,7 +3215,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>115</v>
       </c>
@@ -2498,7 +3242,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>116</v>
       </c>
@@ -2518,7 +3262,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>117</v>
       </c>
@@ -2538,7 +3282,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>114</v>
       </c>
@@ -2558,7 +3302,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>115</v>
       </c>
@@ -2578,7 +3322,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -2598,7 +3342,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -2618,7 +3362,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>114</v>
       </c>
@@ -2638,7 +3382,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -2658,7 +3402,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>116</v>
       </c>
@@ -2678,7 +3422,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -2698,7 +3442,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>114</v>
       </c>
@@ -2718,7 +3462,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>115</v>
       </c>
@@ -2738,7 +3482,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>116</v>
       </c>
@@ -2758,7 +3502,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>117</v>
       </c>
@@ -2778,7 +3522,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>117</v>
       </c>
@@ -2798,7 +3542,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>117</v>
       </c>
@@ -2818,7 +3562,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -2838,7 +3582,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>115</v>
       </c>
@@ -2858,7 +3602,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>115</v>
       </c>
@@ -2878,7 +3622,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>115</v>
       </c>
@@ -2898,7 +3642,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>115</v>
       </c>
@@ -2918,7 +3662,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -2938,7 +3682,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>115</v>
       </c>
@@ -2958,7 +3702,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>115</v>
       </c>
@@ -2978,7 +3722,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>115</v>
       </c>
@@ -2998,7 +3742,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -3018,7 +3762,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>115</v>
       </c>
@@ -3038,7 +3782,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>115</v>
       </c>
@@ -3058,7 +3802,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>115</v>
       </c>
@@ -3078,7 +3822,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>115</v>
       </c>
@@ -3098,7 +3842,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>115</v>
       </c>
@@ -3118,7 +3862,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>115</v>
       </c>
@@ -3138,7 +3882,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>115</v>
       </c>
@@ -3180,18 +3924,18 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="32.21875" customWidth="1"/>
+    <col min="3" max="3" width="32.1796875" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="26" customWidth="1"/>
-    <col min="6" max="6" width="31.44140625" customWidth="1"/>
-    <col min="7" max="7" width="22.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="31.453125" customWidth="1"/>
+    <col min="7" max="7" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
@@ -3214,7 +3958,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>117</v>
       </c>
@@ -3229,7 +3973,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>114</v>
       </c>
@@ -3256,7 +4000,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>114</v>
       </c>
@@ -3283,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -3310,7 +4054,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -3326,7 +4070,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -3352,7 +4096,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -3379,7 +4123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -3406,7 +4150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>0</v>
       </c>
@@ -3421,7 +4165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -3437,7 +4181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -3453,7 +4197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -3463,7 +4207,7 @@
       <c r="E13" s="28"/>
       <c r="F13" s="17"/>
     </row>
-    <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>0</v>
       </c>
@@ -3471,7 +4215,7 @@
       <c r="C14" s="1"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
@@ -3480,7 +4224,7 @@
       <c r="E15" s="27"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -3489,7 +4233,7 @@
       <c r="E16" s="27"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -3499,7 +4243,7 @@
       <c r="E17" s="28"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -3519,7 +4263,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -3539,7 +4283,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -3559,7 +4303,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -3579,7 +4323,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -3599,7 +4343,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -3619,7 +4363,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -3661,14 +4405,14 @@
       <selection activeCell="H13" sqref="H13:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
@@ -3691,7 +4435,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -3707,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3723,7 +4467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -3739,7 +4483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -3756,7 +4500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -3773,7 +4517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -3789,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -3805,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -3815,7 +4559,7 @@
       <c r="E9" s="15"/>
       <c r="F9" s="17"/>
     </row>
-    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>0</v>
       </c>
@@ -3824,7 +4568,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -3833,7 +4577,7 @@
       <c r="E11" s="14"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -3848,7 +4592,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -3865,7 +4609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>0</v>
       </c>
@@ -3881,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
@@ -3897,7 +4641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -3913,7 +4657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -3930,7 +4674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name korrigieren" promptTitle="Name falsch" sqref="A1:A21">
@@ -3952,13 +4696,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="10.77734375" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" style="24" customWidth="1"/>
+    <col min="1" max="5" width="10.81640625" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F1" s="24" t="s">
         <v>72</v>
       </c>
@@ -3966,19 +4710,19 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="F2" s="24">
-        <f>Projektmanagement!I19</f>
-        <v>73.5</v>
+        <f>Projektmanagement!I20</f>
+        <v>92.4</v>
       </c>
       <c r="H2">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
@@ -3987,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>37</v>
       </c>
@@ -3996,7 +4740,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -4005,16 +4749,16 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="24">
         <f>Projektmanagement!J7</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="19" t="s">
         <v>45</v>
       </c>
@@ -4023,7 +4767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -4035,7 +4779,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
         <v>34</v>
       </c>
@@ -4044,7 +4788,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -4053,7 +4797,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -4062,7 +4806,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -4071,7 +4815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>35</v>
       </c>
@@ -4080,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -4092,7 +4836,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
@@ -4101,7 +4845,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -4110,7 +4854,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -4119,7 +4863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -4128,7 +4872,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -4140,7 +4884,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B20" s="8" t="s">
         <v>18</v>
       </c>
@@ -4149,7 +4893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>19</v>
       </c>
@@ -4158,7 +4902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -4167,7 +4911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>21</v>
       </c>
@@ -4176,7 +4920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>22</v>
       </c>
@@ -4185,7 +4929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>23</v>
       </c>

--- a/Zeitaufzeichnung_richtig.xlsx
+++ b/Zeitaufzeichnung_richtig.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Schule\ITP\Döner_Spotted\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janpilu Laptop\Documents\Schule\3AHIT\ITP2(RAFW)\Döner\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12510" windowHeight="6790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="Projektmanagement" sheetId="5" r:id="rId1"/>
@@ -572,7 +572,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -775,12 +775,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -828,13 +979,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1236,27 +1430,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" customWidth="1"/>
-    <col min="3" max="3" width="26.7265625" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="47.1796875" customWidth="1"/>
+    <col min="6" max="6" width="47.21875" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" customWidth="1"/>
-    <col min="10" max="10" width="14.81640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="45"/>
       <c r="B1" s="45" t="s">
         <v>24</v>
@@ -1280,7 +1474,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>114</v>
       </c>
@@ -1307,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
         <v>115</v>
       </c>
@@ -1334,7 +1528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>116</v>
       </c>
@@ -1361,7 +1555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>117</v>
       </c>
@@ -1388,7 +1582,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
         <v>114</v>
       </c>
@@ -1415,7 +1609,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29" t="s">
         <v>115</v>
       </c>
@@ -1439,10 +1633,10 @@
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="29" t="s">
         <v>116</v>
       </c>
@@ -1469,7 +1663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="29" t="s">
         <v>117</v>
       </c>
@@ -1493,10 +1687,10 @@
       </c>
       <c r="J9">
         <f>SUMIF(B:B,H9,E:E)</f>
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="35" t="s">
         <v>114</v>
       </c>
@@ -1520,10 +1714,10 @@
       </c>
       <c r="J10">
         <f>SUMIF(B:B,H10,E:E)</f>
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="29" t="s">
         <v>115</v>
       </c>
@@ -1547,10 +1741,10 @@
       </c>
       <c r="J11">
         <f>SUMIF(B:B,H11,E:E)</f>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="29" t="s">
         <v>116</v>
       </c>
@@ -1574,10 +1768,10 @@
       </c>
       <c r="J12">
         <f>SUM(J2:J10)</f>
-        <v>86.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="29" t="s">
         <v>117</v>
       </c>
@@ -1597,7 +1791,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="29" t="s">
         <v>114</v>
       </c>
@@ -1618,7 +1812,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="29" t="s">
         <v>115</v>
       </c>
@@ -1641,7 +1835,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="29" t="s">
         <v>116</v>
       </c>
@@ -1665,10 +1859,10 @@
       </c>
       <c r="I16">
         <f>SUMIF(A:A,H16,E:E)</f>
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>117</v>
       </c>
@@ -1692,10 +1886,10 @@
       </c>
       <c r="I17">
         <f>SUMIF(A:A,H17,E:E)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="30" t="s">
         <v>114</v>
       </c>
@@ -1719,10 +1913,10 @@
       </c>
       <c r="I18">
         <f>SUMIF(A:A,H18,E:E)</f>
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="29" t="s">
         <v>115</v>
       </c>
@@ -1746,10 +1940,10 @@
       </c>
       <c r="I19">
         <f>SUMIF(A:A,H19,E:E)</f>
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="29" t="s">
         <v>116</v>
       </c>
@@ -1773,10 +1967,10 @@
       </c>
       <c r="I20">
         <f>SUM(I16:I19)</f>
-        <v>92.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>129.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="29" t="s">
         <v>117</v>
       </c>
@@ -1796,7 +1990,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="30" t="s">
         <v>114</v>
       </c>
@@ -1816,7 +2010,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="29" t="s">
         <v>115</v>
       </c>
@@ -1834,7 +2028,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>116</v>
       </c>
@@ -1854,7 +2048,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="45" t="s">
         <v>117</v>
       </c>
@@ -1874,7 +2068,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="30" t="s">
         <v>114</v>
       </c>
@@ -1888,13 +2082,13 @@
         <v>137</v>
       </c>
       <c r="E26" s="33">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F26" s="43" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="29" t="s">
         <v>115</v>
       </c>
@@ -1912,7 +2106,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="29" t="s">
         <v>116</v>
       </c>
@@ -1932,7 +2126,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="45" t="s">
         <v>117</v>
       </c>
@@ -1952,7 +2146,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="30" t="s">
         <v>114</v>
       </c>
@@ -1966,13 +2160,13 @@
         <v>151</v>
       </c>
       <c r="E30" s="33">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F30" s="43" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>115</v>
       </c>
@@ -1992,7 +2186,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="29" t="s">
         <v>116</v>
       </c>
@@ -2012,7 +2206,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="29" t="s">
         <v>117</v>
       </c>
@@ -2032,7 +2226,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="30" t="s">
         <v>114</v>
       </c>
@@ -2046,13 +2240,13 @@
         <v>152</v>
       </c>
       <c r="E34" s="33">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="F34" s="43" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="29" t="s">
         <v>115</v>
       </c>
@@ -2072,7 +2266,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="29" t="s">
         <v>116</v>
       </c>
@@ -2092,7 +2286,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="29" t="s">
         <v>117</v>
       </c>
@@ -2112,7 +2306,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="30" t="s">
         <v>114</v>
       </c>
@@ -2126,13 +2320,13 @@
         <v>153</v>
       </c>
       <c r="E38" s="33">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="F38" s="43" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="29" t="s">
         <v>115</v>
       </c>
@@ -2152,7 +2346,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="29" t="s">
         <v>116</v>
       </c>
@@ -2172,7 +2366,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="29" t="s">
         <v>117</v>
       </c>
@@ -2192,7 +2386,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="30" t="s">
         <v>114</v>
       </c>
@@ -2212,7 +2406,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="29" t="s">
         <v>115</v>
       </c>
@@ -2232,7 +2426,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="29" t="s">
         <v>116</v>
       </c>
@@ -2252,7 +2446,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="29" t="s">
         <v>117</v>
       </c>
@@ -2272,7 +2466,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="30" t="s">
         <v>114</v>
       </c>
@@ -2292,7 +2486,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="29" t="s">
         <v>115</v>
       </c>
@@ -2312,7 +2506,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="29" t="s">
         <v>116</v>
       </c>
@@ -2332,7 +2526,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="29" t="s">
         <v>117</v>
       </c>
@@ -2352,7 +2546,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="30" t="s">
         <v>114</v>
       </c>
@@ -2360,19 +2554,19 @@
         <v>158</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D50" s="37" t="s">
         <v>156</v>
       </c>
       <c r="E50" s="33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F50" s="43" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="29" t="s">
         <v>115</v>
       </c>
@@ -2386,13 +2580,13 @@
         <v>156</v>
       </c>
       <c r="E51" s="19">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F51" s="43" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="29" t="s">
         <v>116</v>
       </c>
@@ -2412,7 +2606,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="29" t="s">
         <v>117</v>
       </c>
@@ -2426,13 +2620,13 @@
         <v>156</v>
       </c>
       <c r="E53" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F53" s="44" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="30" t="s">
         <v>114</v>
       </c>
@@ -2452,7 +2646,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="29" t="s">
         <v>115</v>
       </c>
@@ -2472,7 +2666,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="29" t="s">
         <v>116</v>
       </c>
@@ -2492,7 +2686,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="29" t="s">
         <v>117</v>
       </c>
@@ -2512,32 +2706,32 @@
         <v>159</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="30" t="s">
         <v>114</v>
       </c>
       <c r="B58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D58" s="37" t="s">
         <v>163</v>
       </c>
       <c r="E58" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" s="43" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="29" t="s">
         <v>115</v>
       </c>
       <c r="B59" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="C59" t="s">
         <v>159</v>
@@ -2546,13 +2740,13 @@
         <v>163</v>
       </c>
       <c r="E59" s="19">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F59" s="43" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="29" t="s">
         <v>116</v>
       </c>
@@ -2572,154 +2766,154 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="29" t="s">
+    <row r="61" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D61" s="10" t="s">
+      <c r="B61" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D61" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="E61" s="2">
-        <v>0</v>
-      </c>
-      <c r="F61" s="44" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="30" t="s">
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
+      <c r="F61" s="43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="B62" t="s">
-        <v>159</v>
-      </c>
-      <c r="C62" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="D62" s="37" t="s">
+      <c r="B62" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="D62" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="E62" s="33">
-        <v>0</v>
-      </c>
-      <c r="F62" s="43" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="29" t="s">
+      <c r="E62" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="F62" s="50" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="B63" t="s">
-        <v>159</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B63" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>164</v>
       </c>
       <c r="E63" s="19">
-        <v>0</v>
-      </c>
-      <c r="F63" s="43" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="29" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="F63" s="52" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="B64" t="s">
-        <v>159</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B64" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>164</v>
       </c>
       <c r="E64" s="27">
-        <v>0</v>
-      </c>
-      <c r="F64" s="43" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="29" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="F64" s="52" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D65" s="10" t="s">
+      <c r="B65" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="C65" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="D65" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="E65" s="2">
-        <v>0</v>
-      </c>
-      <c r="F65" s="44" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="30" t="s">
+      <c r="E65" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="F65" s="56" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="B66" t="s">
-        <v>159</v>
-      </c>
-      <c r="C66" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="D66" s="37" t="s">
+      <c r="B66" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="D66" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="E66" s="33">
-        <v>0</v>
-      </c>
-      <c r="F66" s="43" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="29" t="s">
+      <c r="E66" s="48">
+        <v>2.5</v>
+      </c>
+      <c r="F66" s="50" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="B67" t="s">
-        <v>159</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B67" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>165</v>
       </c>
       <c r="E67" s="19">
-        <v>0</v>
-      </c>
-      <c r="F67" s="43" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F67" s="52" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="1" t="s">
         <v>167</v>
       </c>
       <c r="D68" s="11" t="s">
@@ -2728,117 +2922,116 @@
       <c r="E68" s="27">
         <v>1.5</v>
       </c>
-      <c r="F68" s="43" t="s">
+      <c r="F68" s="52" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="29" t="s">
+    <row r="69" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D69" s="10" t="s">
+      <c r="B69" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D69" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E69" s="2">
-        <v>0</v>
-      </c>
-      <c r="F69" s="44" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="30" t="s">
+      <c r="E69" s="1">
+        <v>2</v>
+      </c>
+      <c r="F69" s="52" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="B70" t="s">
-        <v>159</v>
-      </c>
-      <c r="C70" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="D70" s="37" t="s">
+      <c r="B70" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="D70" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="E70" s="33">
-        <v>0</v>
-      </c>
-      <c r="F70" s="43" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="29" t="s">
+      <c r="E70" s="48">
+        <v>4</v>
+      </c>
+      <c r="F70" s="50" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="B71" t="s">
-        <v>159</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B71" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D71" s="11" t="s">
         <v>166</v>
       </c>
       <c r="E71" s="19">
-        <v>0</v>
-      </c>
-      <c r="F71" s="43" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F71" s="52" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="B72" t="s">
-        <v>159</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B72" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>166</v>
       </c>
       <c r="E72" s="27">
-        <v>0</v>
-      </c>
-      <c r="F72" s="43" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="52" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D73" s="10" t="s">
+      <c r="B73" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="D73" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="E73" s="2">
-        <v>0</v>
-      </c>
-      <c r="F73" s="44" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+      <c r="E73" s="54">
+        <v>4</v>
+      </c>
+      <c r="F73" s="56" t="s">
+        <v>159</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name korrigieren" promptTitle="Name falsch" sqref="A1:A73">
       <formula1>$H$16:$H$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Eingabe korrigieren" promptTitle="Falsche Eingabe" sqref="C10:C13 B1 C19 C23 C27 B10:B21 H10:H11 C56 C60 C64 C68 B30:B65536 C72">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Eingabe korrigieren" promptTitle="Falsche Eingabe" sqref="C10:C13 B1 C19 C23 C27 B10:B21 H10:H11 C56 C60 B64:C64 C68 B72:C72 B73:B65536 B30:B63 B65:B71">
       <formula1>$H$2:$H$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -2855,19 +3048,19 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
-    <col min="3" max="3" width="30.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="28.453125" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
     <col min="7" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
@@ -2890,7 +3083,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>114</v>
       </c>
@@ -2917,7 +3110,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>115</v>
       </c>
@@ -2944,7 +3137,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>116</v>
       </c>
@@ -2971,7 +3164,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>117</v>
       </c>
@@ -2998,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>114</v>
       </c>
@@ -3025,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>115</v>
       </c>
@@ -3052,7 +3245,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>116</v>
       </c>
@@ -3072,7 +3265,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>117</v>
       </c>
@@ -3092,7 +3285,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>115</v>
       </c>
@@ -3118,7 +3311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>114</v>
       </c>
@@ -3145,7 +3338,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>117</v>
       </c>
@@ -3172,7 +3365,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>116</v>
       </c>
@@ -3199,7 +3392,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>114</v>
       </c>
@@ -3215,7 +3408,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>115</v>
       </c>
@@ -3242,7 +3435,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>116</v>
       </c>
@@ -3262,7 +3455,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>117</v>
       </c>
@@ -3282,7 +3475,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>114</v>
       </c>
@@ -3302,7 +3495,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>115</v>
       </c>
@@ -3322,7 +3515,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -3342,7 +3535,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -3362,7 +3555,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>114</v>
       </c>
@@ -3382,7 +3575,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -3402,7 +3595,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>116</v>
       </c>
@@ -3422,7 +3615,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -3442,7 +3635,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>114</v>
       </c>
@@ -3462,7 +3655,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>115</v>
       </c>
@@ -3482,7 +3675,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>116</v>
       </c>
@@ -3502,7 +3695,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>117</v>
       </c>
@@ -3522,7 +3715,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>117</v>
       </c>
@@ -3542,7 +3735,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>117</v>
       </c>
@@ -3562,7 +3755,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -3582,7 +3775,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>115</v>
       </c>
@@ -3602,7 +3795,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>115</v>
       </c>
@@ -3622,7 +3815,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>115</v>
       </c>
@@ -3642,7 +3835,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>115</v>
       </c>
@@ -3662,7 +3855,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -3682,7 +3875,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>115</v>
       </c>
@@ -3702,7 +3895,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>115</v>
       </c>
@@ -3722,7 +3915,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>115</v>
       </c>
@@ -3742,7 +3935,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -3762,7 +3955,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>115</v>
       </c>
@@ -3782,7 +3975,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>115</v>
       </c>
@@ -3802,7 +3995,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>115</v>
       </c>
@@ -3822,7 +4015,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>115</v>
       </c>
@@ -3842,7 +4035,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>115</v>
       </c>
@@ -3862,7 +4055,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>115</v>
       </c>
@@ -3882,7 +4075,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>115</v>
       </c>
@@ -3924,18 +4117,18 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="32.1796875" customWidth="1"/>
+    <col min="3" max="3" width="32.21875" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="31.453125" customWidth="1"/>
-    <col min="7" max="7" width="22.81640625" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="31.44140625" customWidth="1"/>
+    <col min="7" max="7" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
@@ -3958,7 +4151,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>117</v>
       </c>
@@ -3973,7 +4166,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>114</v>
       </c>
@@ -4000,7 +4193,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>114</v>
       </c>
@@ -4027,7 +4220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -4054,7 +4247,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -4070,7 +4263,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -4096,7 +4289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -4123,7 +4316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -4150,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>0</v>
       </c>
@@ -4165,7 +4358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -4181,7 +4374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -4197,7 +4390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -4207,7 +4400,7 @@
       <c r="E13" s="28"/>
       <c r="F13" s="17"/>
     </row>
-    <row r="14" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>0</v>
       </c>
@@ -4215,7 +4408,7 @@
       <c r="C14" s="1"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
@@ -4224,7 +4417,7 @@
       <c r="E15" s="27"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -4233,7 +4426,7 @@
       <c r="E16" s="27"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -4243,7 +4436,7 @@
       <c r="E17" s="28"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -4263,7 +4456,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -4283,7 +4476,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -4303,7 +4496,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -4323,7 +4516,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -4343,7 +4536,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -4363,7 +4556,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -4405,14 +4598,14 @@
       <selection activeCell="H13" sqref="H13:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
@@ -4435,7 +4628,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -4451,7 +4644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -4467,7 +4660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -4483,7 +4676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -4500,7 +4693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -4517,7 +4710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -4533,7 +4726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -4549,7 +4742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -4559,7 +4752,7 @@
       <c r="E9" s="15"/>
       <c r="F9" s="17"/>
     </row>
-    <row r="10" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>0</v>
       </c>
@@ -4568,7 +4761,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -4577,7 +4770,7 @@
       <c r="E11" s="14"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -4592,7 +4785,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -4609,7 +4802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>0</v>
       </c>
@@ -4625,7 +4818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
@@ -4641,7 +4834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -4657,7 +4850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -4674,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name korrigieren" promptTitle="Name falsch" sqref="A1:A21">
@@ -4696,13 +4889,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="10.81640625" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" style="24" customWidth="1"/>
+    <col min="1" max="5" width="10.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F1" s="24" t="s">
         <v>72</v>
       </c>
@@ -4710,19 +4903,19 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="F2" s="24">
         <f>Projektmanagement!I20</f>
-        <v>92.4</v>
+        <v>129.5</v>
       </c>
       <c r="H2">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
@@ -4731,7 +4924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>37</v>
       </c>
@@ -4740,7 +4933,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -4749,16 +4942,16 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="24">
         <f>Projektmanagement!J7</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="19" t="s">
         <v>45</v>
       </c>
@@ -4767,7 +4960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -4779,7 +4972,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>34</v>
       </c>
@@ -4788,7 +4981,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -4797,7 +4990,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -4806,7 +4999,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -4815,7 +5008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>35</v>
       </c>
@@ -4824,7 +5017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -4836,7 +5029,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
@@ -4845,7 +5038,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -4854,7 +5047,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -4863,7 +5056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -4872,7 +5065,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -4884,7 +5077,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>18</v>
       </c>
@@ -4893,7 +5086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>19</v>
       </c>
@@ -4902,7 +5095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -4911,7 +5104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>21</v>
       </c>
@@ -4920,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>22</v>
       </c>
@@ -4929,7 +5122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>23</v>
       </c>
